--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_37.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1935267.190180728</v>
+        <v>1943132.193126444</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2998909.10940339</v>
+        <v>2998909.109403391</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6164706.930408321</v>
+        <v>6164706.930408322</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>24.30129424928645</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
         <v>24.30129424928645</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>27.59002526031614</v>
       </c>
       <c r="S12" t="n">
         <v>27.59002526031614</v>
@@ -1503,7 +1503,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1540,19 +1540,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="J13" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>12.27879261133805</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="T13" t="n">
-        <v>12.0225016379484</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>27.59002526031614</v>
@@ -1622,7 +1622,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1749,10 +1749,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>27.59002526031614</v>
       </c>
       <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="S16" t="n">
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
     </row>
     <row r="17">
@@ -1850,19 +1850,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>83.14216908643478</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>83.14216908643478</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>83.14216908643478</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>73.23162253133171</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>73.23162253133175</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,13 +1889,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>83.14216908643479</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>83.14216908643479</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>83.14216908643479</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>83.14216908643478</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>83.14216908643478</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>63.77297968060054</v>
+        <v>63.77297968060052</v>
       </c>
       <c r="S18" t="n">
-        <v>9.458642850731168</v>
+        <v>83.14216908643479</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>83.14216908643479</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>9.458642850731211</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>83.14216908643479</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>83.14216908643478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83.14216908643478</v>
+        <v>83.14216908643479</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>73.23162253133175</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.14216908643478</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2044,16 +2044,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.77718877965179</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>23.45443375167995</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>83.14216908643479</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>83.14216908643478</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>83.14216908643479</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,20 +2078,20 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>134.316254975142</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>58.6297220628457</v>
+        <v>10.91480605266942</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2211,10 +2211,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>161.7724846816478</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>187.549138067801</v>
       </c>
       <c r="V21" t="n">
         <v>194.4083431362515</v>
@@ -2226,7 +2226,7 @@
         <v>167.3807411903037</v>
       </c>
       <c r="Y21" t="n">
-        <v>167.2904517641306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2296,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>93.44849584855294</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>241.0142888776591</v>
+        <v>147.1453733503486</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>187.3174113758634</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,70 +2315,70 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>241.0142888776591</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>31.17349235633988</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2445,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>5.396838970186672</v>
       </c>
       <c r="T24" t="n">
-        <v>161.7724846816478</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>187.549138067801</v>
       </c>
       <c r="V24" t="n">
         <v>194.4083431362515</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>128.8545770854541</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2518,22 +2518,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.76979923852061</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>138.9011473639957</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.9372610382416</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>93.44849584855294</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,14 +2564,14 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>88.72897088480244</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>168.1604501462968</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>196.4102534900019</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="27">
@@ -2631,25 +2631,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>111.5977842320328</v>
       </c>
       <c r="C27" t="n">
         <v>117.7730995704812</v>
       </c>
       <c r="D27" t="n">
-        <v>92.50966614680419</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>102.7096810375664</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>90.13381297554932</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>28.24287310513416</v>
+        <v>82.40811774537605</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>39.81887074292892</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.22243473480857</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>116.7477716860033</v>
+        <v>116.7477716860032</v>
       </c>
       <c r="T27" t="n">
         <v>145.229329276987</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>171.0059826631402</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>196.759583743085</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>150.7472963594698</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>124.8965807641027</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>2.956621574110366</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>197.2022439059934</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>231.5875989187564</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>170.7742559712026</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>136.0756276635551</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>225.2319683381395</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,13 +2837,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>24.43745458783998</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>94.77723580861772</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>108.8530157865037</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,22 +2868,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>52.2903498722397</v>
+        <v>52.29034987223972</v>
       </c>
       <c r="C30" t="n">
-        <v>58.4656652106881</v>
+        <v>58.46566521068812</v>
       </c>
       <c r="D30" t="n">
-        <v>33.20223178701112</v>
+        <v>33.20223178701113</v>
       </c>
       <c r="E30" t="n">
-        <v>43.40224667777331</v>
+        <v>43.40224667777332</v>
       </c>
       <c r="F30" t="n">
-        <v>30.82637861575624</v>
+        <v>30.82637861575625</v>
       </c>
       <c r="G30" t="n">
-        <v>23.100683385583</v>
+        <v>23.10068338558301</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>57.44033732621018</v>
+        <v>57.4403373262102</v>
       </c>
       <c r="T30" t="n">
-        <v>85.92189491719397</v>
+        <v>85.92189491719398</v>
       </c>
       <c r="U30" t="n">
         <v>111.6985483033472</v>
@@ -2934,10 +2934,10 @@
         <v>137.452149383292</v>
       </c>
       <c r="X30" t="n">
-        <v>91.53015142584984</v>
+        <v>91.53015142584985</v>
       </c>
       <c r="Y30" t="n">
-        <v>91.43986199967672</v>
+        <v>91.43986199967674</v>
       </c>
     </row>
     <row r="31">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>65.58914640430967</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>34.37263924058473</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>32.19112886894155</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>53.74814558083114</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>47.98433872981195</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>41.20764114963066</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>63.05055759954185</v>
+        <v>63.05055759954186</v>
       </c>
       <c r="S31" t="n">
         <v>109.7737642593446</v>
       </c>
       <c r="T31" t="n">
-        <v>113.7027556506539</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0761955788632</v>
+        <v>26.87900207755476</v>
       </c>
       <c r="V31" t="n">
-        <v>137.8948095462003</v>
+        <v>137.8948095462004</v>
       </c>
       <c r="W31" t="n">
-        <v>172.2801645589633</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>111.4668216114095</v>
       </c>
       <c r="Y31" t="n">
-        <v>59.72156744906119</v>
+        <v>104.3418195744672</v>
       </c>
     </row>
     <row r="32">
@@ -3029,19 +3029,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>104.006450891542</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>240.4402078430553</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>4.792114888808536</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>108.8530157865037</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>213.5094246925073</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>234.9981349397854</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>52.2903498722397</v>
+        <v>52.29034987223972</v>
       </c>
       <c r="C33" t="n">
-        <v>58.4656652106881</v>
+        <v>58.46566521068812</v>
       </c>
       <c r="D33" t="n">
-        <v>33.20223178701112</v>
+        <v>33.20223178701113</v>
       </c>
       <c r="E33" t="n">
-        <v>43.40224667777331</v>
+        <v>43.40224667777332</v>
       </c>
       <c r="F33" t="n">
-        <v>30.82637861575624</v>
+        <v>30.82637861575641</v>
       </c>
       <c r="G33" t="n">
-        <v>23.10068338558324</v>
+        <v>23.10068338558301</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>57.44033732621018</v>
+        <v>57.4403373262102</v>
       </c>
       <c r="T33" t="n">
-        <v>85.92189491719397</v>
+        <v>85.92189491719398</v>
       </c>
       <c r="U33" t="n">
         <v>111.6985483033472</v>
@@ -3171,10 +3171,10 @@
         <v>137.452149383292</v>
       </c>
       <c r="X33" t="n">
-        <v>91.53015142584984</v>
+        <v>91.53015142584985</v>
       </c>
       <c r="Y33" t="n">
-        <v>91.43986199967672</v>
+        <v>91.43986199967674</v>
       </c>
     </row>
     <row r="34">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.89592048890565</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>47.98433872981194</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>41.20764114963065</v>
+        <v>41.20764114963066</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>63.05055759954185</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>109.7737642593446</v>
       </c>
       <c r="T34" t="n">
-        <v>113.7027556506539</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>172.0761955788632</v>
+        <v>172.0761955788633</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>137.8948095462004</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>172.2801645589634</v>
       </c>
       <c r="X34" t="n">
         <v>111.4668216114095</v>
       </c>
       <c r="Y34" t="n">
-        <v>104.3418195744672</v>
+        <v>83.80041793821641</v>
       </c>
     </row>
     <row r="35">
@@ -3263,11 +3263,11 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
         <v>213.4242636173429</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>187.9840913941556</v>
       </c>
       <c r="W35" t="n">
         <v>213.4242636173429</v>
       </c>
       <c r="X35" t="n">
-        <v>187.9840913941556</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>213.4242636173429</v>
@@ -3348,7 +3348,7 @@
         <v>60.47305475181928</v>
       </c>
       <c r="D36" t="n">
-        <v>35.20962132814229</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>45.40963621890448</v>
@@ -3357,7 +3357,7 @@
         <v>32.83376815688742</v>
       </c>
       <c r="G36" t="n">
-        <v>25.10807292671417</v>
+        <v>15.07954464824179</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>93.53754096698101</v>
       </c>
       <c r="Y36" t="n">
-        <v>48.20910193419321</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="37">
@@ -3427,10 +3427,10 @@
         <v>55.01137686213137</v>
       </c>
       <c r="D37" t="n">
-        <v>36.38002878171589</v>
+        <v>33.08977216351001</v>
       </c>
       <c r="E37" t="n">
-        <v>34.19851841007271</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>55.7555351219623</v>
       </c>
       <c r="H37" t="n">
-        <v>49.99172827094311</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>43.21503069076182</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,22 +3472,22 @@
         <v>65.05794714067302</v>
       </c>
       <c r="S37" t="n">
-        <v>111.7811538004758</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W37" t="n">
-        <v>73.9489994362111</v>
+        <v>174.2875541000946</v>
       </c>
       <c r="X37" t="n">
-        <v>113.4742111525407</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>106.3492091155983</v>
@@ -3506,19 +3506,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>213.4242636173429</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>213.4242636173429</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>89.74364606024618</v>
       </c>
       <c r="I38" t="n">
         <v>98.24044533390945</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>53.19729567861404</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>213.4242636173429</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>54.29773941337088</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>60.47305475181928</v>
@@ -3588,7 +3588,7 @@
         <v>35.20962132814229</v>
       </c>
       <c r="E39" t="n">
-        <v>38.61351127783305</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>139.4595389244232</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>47.50161447229946</v>
       </c>
       <c r="Y39" t="n">
         <v>93.4472515408079</v>
@@ -3664,10 +3664,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>19.63651199561224</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>49.99172827094311</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.00390915790241</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>111.7811538004758</v>
       </c>
       <c r="T40" t="n">
-        <v>115.710145191785</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>174.0835851199944</v>
@@ -3724,7 +3724,7 @@
         <v>174.2875541000946</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,70 +3740,70 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>157.8721197912242</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>139.0537631121102</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>157.8721197912242</v>
       </c>
-      <c r="F41" t="n">
-        <v>139.0537631121103</v>
-      </c>
-      <c r="G41" t="n">
+      <c r="X41" t="n">
         <v>157.8721197912242</v>
-      </c>
-      <c r="H41" t="n">
-        <v>157.8721197912242</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>80.83159403257648</v>
+        <v>80.83159403257649</v>
       </c>
       <c r="C42" t="n">
-        <v>44.23728219511092</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3828,16 +3828,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>59.36762277609303</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>51.64192754591978</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>26.53385461920561</v>
       </c>
       <c r="I42" t="n">
-        <v>3.695043234124213</v>
+        <v>3.695043234124228</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,22 +3867,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>85.98158148654696</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>114.4631390775308</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>140.239792463684</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>157.8721197912242</v>
+        <v>15.91604257663564</v>
       </c>
       <c r="X42" t="n">
-        <v>120.0713955861866</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>119.9811061600135</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>43.9760615431175</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,10 +3904,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>60.73237302927832</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>59.7194584056404</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>7.657590499381911</v>
+        <v>7.657590499381925</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4604536344035211</v>
+        <v>0.4604536344035353</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>142.2439998109907</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>157.8721197912242</v>
       </c>
-      <c r="V43" t="n">
-        <v>15.91670926299878</v>
-      </c>
       <c r="W43" t="n">
-        <v>157.8721197912242</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>140.0080657717463</v>
       </c>
       <c r="Y43" t="n">
-        <v>132.8830637348039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="C11" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="D11" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="E11" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="F11" t="n">
+        <v>85.81333917329844</v>
+      </c>
+      <c r="G11" t="n">
+        <v>57.94462678914073</v>
+      </c>
+      <c r="H11" t="n">
         <v>30.07591440498301</v>
-      </c>
-      <c r="C11" t="n">
-        <v>30.07591440498301</v>
-      </c>
-      <c r="D11" t="n">
-        <v>30.07591440498301</v>
-      </c>
-      <c r="E11" t="n">
-        <v>30.07591440498301</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.207202020825291</v>
       </c>
       <c r="I11" t="n">
         <v>2.207202020825291</v>
@@ -5042,16 +5042,16 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K11" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="L11" t="n">
         <v>29.52132702853827</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>56.83545203625125</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>84.14957704396423</v>
-      </c>
-      <c r="N11" t="n">
-        <v>110.3601010412646</v>
       </c>
       <c r="O11" t="n">
         <v>110.3601010412646</v>
@@ -5075,16 +5075,16 @@
         <v>110.3601010412646</v>
       </c>
       <c r="V11" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W11" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X11" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y11" t="n">
-        <v>54.62267627294912</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C12" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D12" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E12" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F12" t="n">
         <v>2.207202020825291</v>
@@ -5121,13 +5121,13 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K12" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L12" t="n">
-        <v>2.207202020825291</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M12" t="n">
-        <v>29.52132702853827</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N12" t="n">
         <v>56.83545203625125</v>
@@ -5142,28 +5142,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R12" t="n">
-        <v>82.49138865710684</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S12" t="n">
-        <v>54.62267627294912</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="T12" t="n">
-        <v>26.7539638887914</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="U12" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V12" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W12" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X12" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y12" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.47873522451639</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C13" t="n">
-        <v>42.47873522451639</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D13" t="n">
-        <v>42.47873522451639</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E13" t="n">
-        <v>42.47873522451639</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="F13" t="n">
-        <v>42.47873522451639</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="G13" t="n">
-        <v>42.47873522451639</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="H13" t="n">
-        <v>42.47873522451639</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="I13" t="n">
-        <v>42.47873522451639</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J13" t="n">
-        <v>14.61002284035867</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K13" t="n">
         <v>2.207202020825291</v>
@@ -5212,7 +5212,7 @@
         <v>84.14957704396423</v>
       </c>
       <c r="O13" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P13" t="n">
         <v>110.3601010412646</v>
@@ -5227,22 +5227,22 @@
         <v>54.62267627294912</v>
       </c>
       <c r="T13" t="n">
-        <v>42.47873522451639</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U13" t="n">
-        <v>42.47873522451639</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V13" t="n">
-        <v>42.47873522451639</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W13" t="n">
-        <v>42.47873522451639</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X13" t="n">
-        <v>42.47873522451639</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y13" t="n">
-        <v>42.47873522451639</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>82.49138865710684</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="C14" t="n">
-        <v>82.49138865710684</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="D14" t="n">
-        <v>82.49138865710684</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="E14" t="n">
+        <v>85.81333917329844</v>
+      </c>
+      <c r="F14" t="n">
         <v>57.94462678914073</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>30.07591440498301</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.207202020825291</v>
       </c>
       <c r="H14" t="n">
         <v>2.207202020825291</v>
@@ -5291,7 +5291,7 @@
         <v>84.14957704396423</v>
       </c>
       <c r="O14" t="n">
-        <v>84.14957704396423</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P14" t="n">
         <v>110.3601010412646</v>
@@ -5300,28 +5300,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R14" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S14" t="n">
-        <v>82.49138865710684</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T14" t="n">
-        <v>82.49138865710684</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U14" t="n">
-        <v>82.49138865710684</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V14" t="n">
-        <v>82.49138865710684</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W14" t="n">
-        <v>82.49138865710684</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X14" t="n">
-        <v>82.49138865710684</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="Y14" t="n">
-        <v>82.49138865710684</v>
+        <v>85.81333917329844</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30.07591440498301</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="C15" t="n">
-        <v>30.07591440498301</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="D15" t="n">
-        <v>30.07591440498301</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="E15" t="n">
-        <v>30.07591440498301</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="F15" t="n">
-        <v>30.07591440498301</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="G15" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="H15" t="n">
         <v>2.207202020825291</v>
@@ -5358,16 +5358,16 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K15" t="n">
-        <v>2.207202020825291</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L15" t="n">
-        <v>2.207202020825291</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M15" t="n">
-        <v>28.41772601812563</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N15" t="n">
-        <v>28.41772601812563</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O15" t="n">
         <v>55.73185102583861</v>
@@ -5397,10 +5397,10 @@
         <v>110.3601010412646</v>
       </c>
       <c r="X15" t="n">
-        <v>85.81333917329844</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y15" t="n">
-        <v>57.94462678914073</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C16" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D16" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E16" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F16" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G16" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H16" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I16" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J16" t="n">
         <v>2.207202020825291</v>
@@ -5458,28 +5458,28 @@
         <v>82.49138865710684</v>
       </c>
       <c r="R16" t="n">
+        <v>82.49138865710684</v>
+      </c>
+      <c r="S16" t="n">
+        <v>82.49138865710684</v>
+      </c>
+      <c r="T16" t="n">
         <v>54.62267627294912</v>
       </c>
-      <c r="S16" t="n">
-        <v>26.7539638887914</v>
-      </c>
-      <c r="T16" t="n">
-        <v>26.7539638887914</v>
-      </c>
       <c r="U16" t="n">
-        <v>26.7539638887914</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V16" t="n">
-        <v>26.7539638887914</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W16" t="n">
-        <v>26.7539638887914</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X16" t="n">
         <v>26.7539638887914</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>332.5686763457391</v>
+        <v>80.62270941714888</v>
       </c>
       <c r="C17" t="n">
-        <v>332.5686763457391</v>
+        <v>80.62270941714888</v>
       </c>
       <c r="D17" t="n">
-        <v>332.5686763457391</v>
+        <v>80.62270941714888</v>
       </c>
       <c r="E17" t="n">
-        <v>248.5866873695423</v>
+        <v>80.62270941714888</v>
       </c>
       <c r="F17" t="n">
+        <v>80.62270941714888</v>
+      </c>
+      <c r="G17" t="n">
+        <v>80.62270941714888</v>
+      </c>
+      <c r="H17" t="n">
+        <v>80.62270941714888</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6.651373526914783</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6.651373526914783</v>
+      </c>
+      <c r="K17" t="n">
+        <v>88.96212092248523</v>
+      </c>
+      <c r="L17" t="n">
+        <v>167.9471815545983</v>
+      </c>
+      <c r="M17" t="n">
+        <v>167.9471815545983</v>
+      </c>
+      <c r="N17" t="n">
+        <v>250.2579289501687</v>
+      </c>
+      <c r="O17" t="n">
+        <v>332.5686763457392</v>
+      </c>
+      <c r="P17" t="n">
+        <v>332.5686763457392</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>332.5686763457392</v>
+      </c>
+      <c r="R17" t="n">
+        <v>248.5866873695424</v>
+      </c>
+      <c r="S17" t="n">
         <v>164.6046983933456</v>
       </c>
-      <c r="G17" t="n">
-        <v>80.62270941714884</v>
-      </c>
-      <c r="H17" t="n">
-        <v>6.651373526914782</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6.651373526914782</v>
-      </c>
-      <c r="J17" t="n">
-        <v>6.651373526914782</v>
-      </c>
-      <c r="K17" t="n">
-        <v>6.651373526914782</v>
-      </c>
-      <c r="L17" t="n">
-        <v>6.651373526914782</v>
-      </c>
-      <c r="M17" t="n">
-        <v>85.63643415902779</v>
-      </c>
-      <c r="N17" t="n">
-        <v>167.9471815545982</v>
-      </c>
-      <c r="O17" t="n">
-        <v>250.2579289501687</v>
-      </c>
-      <c r="P17" t="n">
-        <v>332.5686763457391</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>332.5686763457391</v>
-      </c>
-      <c r="R17" t="n">
-        <v>332.5686763457391</v>
-      </c>
-      <c r="S17" t="n">
-        <v>332.5686763457391</v>
-      </c>
       <c r="T17" t="n">
-        <v>332.5686763457391</v>
+        <v>80.62270941714888</v>
       </c>
       <c r="U17" t="n">
-        <v>332.5686763457391</v>
+        <v>80.62270941714888</v>
       </c>
       <c r="V17" t="n">
-        <v>332.5686763457391</v>
+        <v>80.62270941714888</v>
       </c>
       <c r="W17" t="n">
-        <v>332.5686763457391</v>
+        <v>80.62270941714888</v>
       </c>
       <c r="X17" t="n">
-        <v>332.5686763457391</v>
+        <v>80.62270941714888</v>
       </c>
       <c r="Y17" t="n">
-        <v>332.5686763457391</v>
+        <v>80.62270941714888</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>90.63336250311153</v>
+        <v>6.651373526914783</v>
       </c>
       <c r="C18" t="n">
-        <v>90.63336250311153</v>
+        <v>6.651373526914783</v>
       </c>
       <c r="D18" t="n">
-        <v>90.63336250311153</v>
+        <v>6.651373526914783</v>
       </c>
       <c r="E18" t="n">
-        <v>6.651373526914782</v>
+        <v>6.651373526914783</v>
       </c>
       <c r="F18" t="n">
-        <v>6.651373526914782</v>
+        <v>6.651373526914783</v>
       </c>
       <c r="G18" t="n">
-        <v>6.651373526914782</v>
+        <v>6.651373526914783</v>
       </c>
       <c r="H18" t="n">
-        <v>6.651373526914782</v>
+        <v>6.651373526914783</v>
       </c>
       <c r="I18" t="n">
-        <v>6.651373526914782</v>
+        <v>6.651373526914783</v>
       </c>
       <c r="J18" t="n">
-        <v>6.651373526914782</v>
+        <v>6.651373526914783</v>
       </c>
       <c r="K18" t="n">
-        <v>6.651373526914782</v>
+        <v>85.63643415902783</v>
       </c>
       <c r="L18" t="n">
-        <v>88.96212092248521</v>
+        <v>85.63643415902783</v>
       </c>
       <c r="M18" t="n">
-        <v>171.2728683180557</v>
+        <v>85.63643415902783</v>
       </c>
       <c r="N18" t="n">
+        <v>167.9471815545983</v>
+      </c>
+      <c r="O18" t="n">
         <v>250.2579289501687</v>
       </c>
-      <c r="O18" t="n">
-        <v>332.5686763457391</v>
-      </c>
       <c r="P18" t="n">
-        <v>332.5686763457391</v>
+        <v>332.5686763457392</v>
       </c>
       <c r="Q18" t="n">
-        <v>332.5686763457391</v>
+        <v>332.5686763457392</v>
       </c>
       <c r="R18" t="n">
-        <v>268.1515251532133</v>
+        <v>268.1515251532134</v>
       </c>
       <c r="S18" t="n">
-        <v>258.597340455505</v>
+        <v>184.1695361770166</v>
       </c>
       <c r="T18" t="n">
-        <v>258.597340455505</v>
+        <v>100.1875472008198</v>
       </c>
       <c r="U18" t="n">
-        <v>258.597340455505</v>
+        <v>90.63336250311154</v>
       </c>
       <c r="V18" t="n">
-        <v>258.597340455505</v>
+        <v>90.63336250311154</v>
       </c>
       <c r="W18" t="n">
-        <v>258.597340455505</v>
+        <v>6.651373526914783</v>
       </c>
       <c r="X18" t="n">
-        <v>258.597340455505</v>
+        <v>6.651373526914783</v>
       </c>
       <c r="Y18" t="n">
-        <v>174.6153514793083</v>
+        <v>6.651373526914783</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>90.63336250311153</v>
+        <v>80.62270941714888</v>
       </c>
       <c r="C19" t="n">
-        <v>90.63336250311153</v>
+        <v>6.651373526914783</v>
       </c>
       <c r="D19" t="n">
-        <v>90.63336250311153</v>
+        <v>6.651373526914783</v>
       </c>
       <c r="E19" t="n">
-        <v>90.63336250311153</v>
+        <v>6.651373526914783</v>
       </c>
       <c r="F19" t="n">
-        <v>90.63336250311153</v>
+        <v>6.651373526914783</v>
       </c>
       <c r="G19" t="n">
-        <v>90.63336250311153</v>
+        <v>6.651373526914783</v>
       </c>
       <c r="H19" t="n">
-        <v>6.651373526914782</v>
+        <v>6.651373526914783</v>
       </c>
       <c r="I19" t="n">
-        <v>6.651373526914782</v>
+        <v>6.651373526914783</v>
       </c>
       <c r="J19" t="n">
-        <v>6.651373526914782</v>
+        <v>6.651373526914783</v>
       </c>
       <c r="K19" t="n">
-        <v>20.62558254661297</v>
+        <v>20.62558254661295</v>
       </c>
       <c r="L19" t="n">
         <v>83.9607134816481</v>
@@ -5689,34 +5689,34 @@
         <v>299.2418967461724</v>
       </c>
       <c r="P19" t="n">
-        <v>332.5686763457391</v>
+        <v>332.5686763457392</v>
       </c>
       <c r="Q19" t="n">
-        <v>282.2886876794242</v>
+        <v>332.5686763457392</v>
       </c>
       <c r="R19" t="n">
-        <v>282.2886876794242</v>
+        <v>332.5686763457392</v>
       </c>
       <c r="S19" t="n">
-        <v>258.597340455505</v>
+        <v>332.5686763457392</v>
       </c>
       <c r="T19" t="n">
-        <v>258.597340455505</v>
+        <v>248.5866873695424</v>
       </c>
       <c r="U19" t="n">
-        <v>258.597340455505</v>
+        <v>248.5866873695424</v>
       </c>
       <c r="V19" t="n">
-        <v>258.597340455505</v>
+        <v>248.5866873695424</v>
       </c>
       <c r="W19" t="n">
-        <v>174.6153514793083</v>
+        <v>248.5866873695424</v>
       </c>
       <c r="X19" t="n">
-        <v>174.6153514793083</v>
+        <v>164.6046983933456</v>
       </c>
       <c r="Y19" t="n">
-        <v>174.6153514793083</v>
+        <v>164.6046983933456</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5783,16 +5783,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
         <v>506.1786963984129</v>
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>214.1760694112104</v>
+        <v>30.30619972907073</v>
       </c>
       <c r="C21" t="n">
-        <v>78.50308458783465</v>
+        <v>30.30619972907073</v>
       </c>
       <c r="D21" t="n">
-        <v>78.50308458783465</v>
+        <v>30.30619972907073</v>
       </c>
       <c r="E21" t="n">
         <v>19.28114311021272</v>
@@ -5841,13 +5841,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5859,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>800.6506053271536</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>611.207031521294</v>
       </c>
       <c r="V21" t="n">
-        <v>767.6850917366448</v>
+        <v>414.8349677473026</v>
       </c>
       <c r="W21" t="n">
-        <v>552.2277794661945</v>
+        <v>199.3776554768523</v>
       </c>
       <c r="X21" t="n">
-        <v>383.156323718413</v>
+        <v>30.30619972907073</v>
       </c>
       <c r="Y21" t="n">
-        <v>214.1760694112104</v>
+        <v>30.30619972907073</v>
       </c>
     </row>
     <row r="22">
@@ -5944,10 +5944,10 @@
         <v>357.1223398033562</v>
       </c>
       <c r="V22" t="n">
-        <v>262.7299197543128</v>
+        <v>357.1223398033562</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>208.4906495504788</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -5987,7 +5987,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6026,13 +6026,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50.76951922772776</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>50.76951922772776</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>50.76951922772776</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>50.76951922772776</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6069,22 +6069,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>958.6058030154982</v>
       </c>
       <c r="T24" t="n">
-        <v>800.6506053271536</v>
+        <v>958.6058030154982</v>
       </c>
       <c r="U24" t="n">
-        <v>800.6506053271536</v>
+        <v>769.1622292096386</v>
       </c>
       <c r="V24" t="n">
-        <v>604.2785415531622</v>
+        <v>572.7901654356472</v>
       </c>
       <c r="W24" t="n">
-        <v>388.8212292827119</v>
+        <v>357.3328531651969</v>
       </c>
       <c r="X24" t="n">
-        <v>219.7497735349304</v>
+        <v>188.2613974174153</v>
       </c>
       <c r="Y24" t="n">
-        <v>50.76951922772776</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>149.4372815803683</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
         <v>19.28114311021272</v>
@@ -6166,31 +6166,31 @@
         <v>357.1223398033562</v>
       </c>
       <c r="Q25" t="n">
-        <v>308.870017340204</v>
+        <v>357.1223398033562</v>
       </c>
       <c r="R25" t="n">
-        <v>168.5658280836427</v>
+        <v>357.1223398033562</v>
       </c>
       <c r="S25" t="n">
-        <v>149.4372815803683</v>
+        <v>357.1223398033562</v>
       </c>
       <c r="T25" t="n">
-        <v>149.4372815803683</v>
+        <v>357.1223398033562</v>
       </c>
       <c r="U25" t="n">
-        <v>149.4372815803683</v>
+        <v>113.6735631592561</v>
       </c>
       <c r="V25" t="n">
-        <v>149.4372815803683</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>149.4372815803683</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>149.4372815803683</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>149.4372815803683</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6251,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>874.4319323946742</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>704.5728918428592</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>455.0075399137837</v>
+        <v>261.705474482724</v>
       </c>
       <c r="C27" t="n">
-        <v>336.0448130749138</v>
+        <v>142.7427476438541</v>
       </c>
       <c r="D27" t="n">
-        <v>242.6007058559197</v>
+        <v>142.7427476438541</v>
       </c>
       <c r="E27" t="n">
-        <v>138.8535532927213</v>
+        <v>142.7427476438541</v>
       </c>
       <c r="F27" t="n">
-        <v>47.80929776186339</v>
+        <v>142.7427476438541</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>59.50222466872678</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6306,19 +6306,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>918.3779285057791</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>800.4508863987051</v>
+        <v>846.1301134035623</v>
       </c>
       <c r="T27" t="n">
-        <v>653.7545941997282</v>
+        <v>699.4338212045855</v>
       </c>
       <c r="U27" t="n">
-        <v>653.7545941997282</v>
+        <v>526.7005053832316</v>
       </c>
       <c r="V27" t="n">
-        <v>653.7545941997282</v>
+        <v>526.7005053832316</v>
       </c>
       <c r="W27" t="n">
-        <v>455.0075399137837</v>
+        <v>526.7005053832316</v>
       </c>
       <c r="X27" t="n">
-        <v>455.0075399137837</v>
+        <v>526.7005053832316</v>
       </c>
       <c r="Y27" t="n">
-        <v>455.0075399137837</v>
+        <v>374.4305090605349</v>
       </c>
     </row>
     <row r="28">
@@ -6385,49 +6385,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>51.62039162624492</v>
+        <v>51.62039162624494</v>
       </c>
       <c r="L28" t="n">
-        <v>133.3205620576141</v>
+        <v>133.3205620576142</v>
       </c>
       <c r="M28" t="n">
-        <v>226.8946456734925</v>
+        <v>226.8946456734926</v>
       </c>
       <c r="N28" t="n">
-        <v>324.971541752585</v>
+        <v>324.9715417525851</v>
       </c>
       <c r="O28" t="n">
-        <v>403.6968638111405</v>
+        <v>403.6968638111406</v>
       </c>
       <c r="P28" t="n">
-        <v>455.3886829070413</v>
+        <v>455.3886829070414</v>
       </c>
       <c r="Q28" t="n">
-        <v>455.3886829070413</v>
+        <v>455.3886829070414</v>
       </c>
       <c r="R28" t="n">
-        <v>455.3886829070413</v>
+        <v>455.3886829070414</v>
       </c>
       <c r="S28" t="n">
-        <v>455.3886829070413</v>
+        <v>455.3886829070414</v>
       </c>
       <c r="T28" t="n">
-        <v>455.3886829070413</v>
+        <v>455.3886829070414</v>
       </c>
       <c r="U28" t="n">
-        <v>452.402196468546</v>
+        <v>455.3886829070414</v>
       </c>
       <c r="V28" t="n">
-        <v>253.2080107049162</v>
+        <v>455.3886829070414</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>455.3886829070414</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>282.8894344512812</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>145.4393054981953</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>733.6857351238064</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>490.2369584797062</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>490.2369584797062</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>490.2369584797062</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>490.2369584797062</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>246.7881818356062</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6461,7 +6461,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K29" t="n">
         <v>122.2961490211351</v>
@@ -6485,28 +6485,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>939.3728579471615</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>843.638276322295</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>733.6857351238064</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>733.6857351238064</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>733.6857351238064</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>733.6857351238064</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>733.6857351238064</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>733.6857351238064</v>
       </c>
     </row>
     <row r="30">
@@ -6519,16 +6519,16 @@
         <v>210.1874114706286</v>
       </c>
       <c r="C30" t="n">
-        <v>151.131183985085</v>
+        <v>151.1311839850851</v>
       </c>
       <c r="D30" t="n">
         <v>117.5935761194174</v>
       </c>
       <c r="E30" t="n">
-        <v>73.7529229095453</v>
+        <v>73.75292290954533</v>
       </c>
       <c r="F30" t="n">
-        <v>42.61516673201373</v>
+        <v>42.61516673201375</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6543,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>304.2053859195205</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6576,13 +6576,13 @@
         <v>706.4200034432106</v>
       </c>
       <c r="V30" t="n">
-        <v>586.664697007051</v>
+        <v>586.6646970070514</v>
       </c>
       <c r="W30" t="n">
-        <v>447.824142074433</v>
+        <v>447.8241420744332</v>
       </c>
       <c r="X30" t="n">
-        <v>355.3694436644836</v>
+        <v>355.3694436644838</v>
       </c>
       <c r="Y30" t="n">
         <v>263.0059466951132</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>230.9012376251623</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>230.9012376251623</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>196.18140000841</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>163.6651082216003</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>163.6651082216003</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>109.3740520793467</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>60.9050230593346</v>
       </c>
       <c r="I31" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>39.95596023455803</v>
+        <v>39.95596023455802</v>
       </c>
       <c r="K31" t="n">
-        <v>131.0095687667854</v>
+        <v>131.0095687667853</v>
       </c>
       <c r="L31" t="n">
         <v>271.4240992143497</v>
@@ -6631,40 +6631,40 @@
         <v>423.7125428464232</v>
       </c>
       <c r="N31" t="n">
-        <v>580.5037989417109</v>
+        <v>580.5037989417108</v>
       </c>
       <c r="O31" t="n">
-        <v>717.9434810164615</v>
+        <v>717.9434810164614</v>
       </c>
       <c r="P31" t="n">
-        <v>828.3496601285574</v>
+        <v>828.3496601285573</v>
       </c>
       <c r="Q31" t="n">
-        <v>856.1496427492314</v>
+        <v>856.1496427492311</v>
       </c>
       <c r="R31" t="n">
-        <v>792.4622108305023</v>
+        <v>792.4622108305019</v>
       </c>
       <c r="S31" t="n">
-        <v>681.5796206695481</v>
+        <v>681.5796206695477</v>
       </c>
       <c r="T31" t="n">
-        <v>566.7283523355543</v>
+        <v>681.5796206695477</v>
       </c>
       <c r="U31" t="n">
-        <v>392.9140133670056</v>
+        <v>654.4291135205025</v>
       </c>
       <c r="V31" t="n">
-        <v>253.6263269567022</v>
+        <v>515.1414271101991</v>
       </c>
       <c r="W31" t="n">
-        <v>79.60595871532504</v>
+        <v>515.1414271101991</v>
       </c>
       <c r="X31" t="n">
-        <v>79.60595871532504</v>
+        <v>402.5486780077651</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>297.1529006598185</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>854.1046143121475</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>749.0475932095799</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6725,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>959.2166354209306</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>959.2166354209306</v>
+        <v>854.1046143121475</v>
       </c>
       <c r="U32" t="n">
-        <v>959.2166354209306</v>
+        <v>854.1046143121475</v>
       </c>
       <c r="V32" t="n">
-        <v>743.5505498729435</v>
+        <v>854.1046143121475</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>854.1046143121475</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>854.1046143121475</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>854.1046143121475</v>
       </c>
     </row>
     <row r="33">
@@ -6756,16 +6756,16 @@
         <v>210.1874114706289</v>
       </c>
       <c r="C33" t="n">
-        <v>151.1311839850854</v>
+        <v>151.1311839850853</v>
       </c>
       <c r="D33" t="n">
-        <v>117.5935761194176</v>
+        <v>117.5935761194175</v>
       </c>
       <c r="E33" t="n">
-        <v>73.75292290954553</v>
+        <v>73.75292290954548</v>
       </c>
       <c r="F33" t="n">
-        <v>42.61516673201398</v>
+        <v>42.61516673201375</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6780,22 +6780,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.3740520793467</v>
+        <v>60.9050230593346</v>
       </c>
       <c r="C34" t="n">
-        <v>109.3740520793467</v>
+        <v>60.9050230593346</v>
       </c>
       <c r="D34" t="n">
-        <v>109.3740520793467</v>
+        <v>60.9050230593346</v>
       </c>
       <c r="E34" t="n">
-        <v>109.3740520793467</v>
+        <v>60.9050230593346</v>
       </c>
       <c r="F34" t="n">
-        <v>109.3740520793467</v>
+        <v>60.9050230593346</v>
       </c>
       <c r="G34" t="n">
-        <v>109.3740520793467</v>
+        <v>60.9050230593346</v>
       </c>
       <c r="H34" t="n">
-        <v>60.90502305933459</v>
+        <v>60.9050230593346</v>
       </c>
       <c r="I34" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>39.95596023455803</v>
+        <v>39.95596023455802</v>
       </c>
       <c r="K34" t="n">
-        <v>131.0095687667854</v>
+        <v>131.0095687667853</v>
       </c>
       <c r="L34" t="n">
         <v>271.4240992143497</v>
@@ -6868,40 +6868,40 @@
         <v>423.7125428464232</v>
       </c>
       <c r="N34" t="n">
-        <v>580.5037989417109</v>
+        <v>580.5037989417108</v>
       </c>
       <c r="O34" t="n">
-        <v>717.9434810164615</v>
+        <v>717.9434810164614</v>
       </c>
       <c r="P34" t="n">
-        <v>828.3496601285574</v>
+        <v>828.3496601285573</v>
       </c>
       <c r="Q34" t="n">
-        <v>856.1496427492314</v>
+        <v>856.1496427492311</v>
       </c>
       <c r="R34" t="n">
-        <v>792.4622108305023</v>
+        <v>856.1496427492311</v>
       </c>
       <c r="S34" t="n">
-        <v>681.5796206695481</v>
+        <v>745.267052588277</v>
       </c>
       <c r="T34" t="n">
-        <v>566.7283523355543</v>
+        <v>745.267052588277</v>
       </c>
       <c r="U34" t="n">
-        <v>392.9140133670056</v>
+        <v>571.4527136197282</v>
       </c>
       <c r="V34" t="n">
-        <v>392.9140133670056</v>
+        <v>432.1650272094248</v>
       </c>
       <c r="W34" t="n">
-        <v>392.9140133670056</v>
+        <v>258.1446589680477</v>
       </c>
       <c r="X34" t="n">
-        <v>280.3212642645717</v>
+        <v>145.5519098656138</v>
       </c>
       <c r="Y34" t="n">
-        <v>174.9254869166251</v>
+        <v>60.9050230593346</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>17.07394108938743</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="C35" t="n">
         <v>17.07394108938743</v>
@@ -6944,10 +6944,10 @@
         <v>300.1647985849684</v>
       </c>
       <c r="M35" t="n">
-        <v>408.9875268274333</v>
+        <v>511.4548195661379</v>
       </c>
       <c r="N35" t="n">
-        <v>614.8420490346726</v>
+        <v>717.3093417733771</v>
       </c>
       <c r="O35" t="n">
         <v>764.0369991773207</v>
@@ -6971,10 +6971,10 @@
         <v>853.6970544693717</v>
       </c>
       <c r="V35" t="n">
-        <v>853.6970544693717</v>
+        <v>663.8141338692145</v>
       </c>
       <c r="W35" t="n">
-        <v>638.1169902094293</v>
+        <v>448.2340696092722</v>
       </c>
       <c r="X35" t="n">
         <v>448.2340696092722</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>218.1185404656174</v>
+        <v>172.4234398528753</v>
       </c>
       <c r="C36" t="n">
-        <v>157.034646776911</v>
+        <v>111.339546164169</v>
       </c>
       <c r="D36" t="n">
-        <v>121.4693727080804</v>
+        <v>111.339546164169</v>
       </c>
       <c r="E36" t="n">
-        <v>75.6010532950456</v>
+        <v>65.47122675113411</v>
       </c>
       <c r="F36" t="n">
-        <v>42.43563091435124</v>
+        <v>32.30580437043975</v>
       </c>
       <c r="G36" t="n">
         <v>17.07394108938743</v>
@@ -7017,22 +7017,22 @@
         <v>17.07394108938743</v>
       </c>
       <c r="K36" t="n">
-        <v>17.07394108938743</v>
+        <v>142.4315011472248</v>
       </c>
       <c r="L36" t="n">
-        <v>228.3639620705569</v>
+        <v>142.4315011472248</v>
       </c>
       <c r="M36" t="n">
-        <v>439.6539830517264</v>
+        <v>179.0789763803525</v>
       </c>
       <c r="N36" t="n">
-        <v>642.4070334882022</v>
+        <v>390.368997361522</v>
       </c>
       <c r="O36" t="n">
-        <v>853.6970544693717</v>
+        <v>601.6590183426915</v>
       </c>
       <c r="P36" t="n">
-        <v>853.6970544693717</v>
+        <v>784.3024959560423</v>
       </c>
       <c r="Q36" t="n">
         <v>853.6970544693717</v>
@@ -7059,7 +7059,7 @@
         <v>321.6608044530559</v>
       </c>
       <c r="Y36" t="n">
-        <v>272.9647418932648</v>
+        <v>227.2696412805226</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>294.3994139556372</v>
+        <v>162.3837230566639</v>
       </c>
       <c r="C37" t="n">
-        <v>238.8323666201509</v>
+        <v>106.8166757211776</v>
       </c>
       <c r="D37" t="n">
-        <v>202.0848628002359</v>
+        <v>73.39266343480389</v>
       </c>
       <c r="E37" t="n">
-        <v>167.5409048102634</v>
+        <v>73.39266343480389</v>
       </c>
       <c r="F37" t="n">
-        <v>167.5409048102634</v>
+        <v>73.39266343480389</v>
       </c>
       <c r="G37" t="n">
-        <v>111.222182464847</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H37" t="n">
-        <v>60.72548724167211</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I37" t="n">
         <v>17.07394108938743</v>
@@ -7120,25 +7120,25 @@
         <v>772.3288174407551</v>
       </c>
       <c r="S37" t="n">
-        <v>659.4185610766381</v>
+        <v>772.3288174407551</v>
       </c>
       <c r="T37" t="n">
-        <v>659.4185610766381</v>
+        <v>655.4498829035984</v>
       </c>
       <c r="U37" t="n">
-        <v>659.4185610766381</v>
+        <v>655.4498829035984</v>
       </c>
       <c r="V37" t="n">
-        <v>659.4185610766381</v>
+        <v>514.1345302901323</v>
       </c>
       <c r="W37" t="n">
-        <v>584.7226020501622</v>
+        <v>338.0864958455923</v>
       </c>
       <c r="X37" t="n">
-        <v>470.1021867445656</v>
+        <v>338.0864958455923</v>
       </c>
       <c r="Y37" t="n">
-        <v>362.6787431934562</v>
+        <v>230.6630522944829</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>638.1169902094293</v>
+        <v>331.8867784138848</v>
       </c>
       <c r="C38" t="n">
-        <v>638.1169902094293</v>
+        <v>331.8867784138848</v>
       </c>
       <c r="D38" t="n">
-        <v>422.536925949487</v>
+        <v>331.8867784138848</v>
       </c>
       <c r="E38" t="n">
-        <v>422.536925949487</v>
+        <v>331.8867784138848</v>
       </c>
       <c r="F38" t="n">
-        <v>206.9568616895446</v>
+        <v>331.8867784138848</v>
       </c>
       <c r="G38" t="n">
-        <v>206.9568616895446</v>
+        <v>331.8867784138848</v>
       </c>
       <c r="H38" t="n">
         <v>116.3067141539424</v>
@@ -7181,7 +7181,7 @@
         <v>300.1647985849684</v>
       </c>
       <c r="M38" t="n">
-        <v>511.4548195661379</v>
+        <v>408.9875268274333</v>
       </c>
       <c r="N38" t="n">
         <v>614.8420490346726</v>
@@ -7202,22 +7202,22 @@
         <v>853.6970544693717</v>
       </c>
       <c r="T38" t="n">
-        <v>853.6970544693717</v>
+        <v>741.7168470677202</v>
       </c>
       <c r="U38" t="n">
-        <v>853.6970544693717</v>
+        <v>601.2014847734373</v>
       </c>
       <c r="V38" t="n">
-        <v>853.6970544693717</v>
+        <v>547.4668426738272</v>
       </c>
       <c r="W38" t="n">
-        <v>853.6970544693717</v>
+        <v>547.4668426738272</v>
       </c>
       <c r="X38" t="n">
-        <v>638.1169902094293</v>
+        <v>547.4668426738272</v>
       </c>
       <c r="Y38" t="n">
-        <v>638.1169902094293</v>
+        <v>331.8867784138848</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>178.0883454171741</v>
+        <v>184.953118084923</v>
       </c>
       <c r="C39" t="n">
-        <v>117.0044517284678</v>
+        <v>123.8692243962167</v>
       </c>
       <c r="D39" t="n">
-        <v>81.43917765963715</v>
+        <v>88.30395032738608</v>
       </c>
       <c r="E39" t="n">
         <v>42.43563091435124</v>
@@ -7254,22 +7254,22 @@
         <v>17.07394108938743</v>
       </c>
       <c r="K39" t="n">
-        <v>17.07394108938743</v>
+        <v>142.4315011472248</v>
       </c>
       <c r="L39" t="n">
-        <v>17.07394108938743</v>
+        <v>142.4315011472248</v>
       </c>
       <c r="M39" t="n">
-        <v>228.3639620705569</v>
+        <v>353.7215221283943</v>
       </c>
       <c r="N39" t="n">
-        <v>439.6539830517264</v>
+        <v>565.0115431095638</v>
       </c>
       <c r="O39" t="n">
-        <v>650.9440040328959</v>
+        <v>671.0535768560208</v>
       </c>
       <c r="P39" t="n">
-        <v>784.3024959560423</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="Q39" t="n">
         <v>853.6970544693717</v>
@@ -7293,10 +7293,10 @@
         <v>327.3257100173547</v>
       </c>
       <c r="X39" t="n">
-        <v>327.3257100173547</v>
+        <v>279.3442812574563</v>
       </c>
       <c r="Y39" t="n">
-        <v>232.9345468448215</v>
+        <v>184.953118084923</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>67.5706363125623</v>
+        <v>117.3078516632157</v>
       </c>
       <c r="C40" t="n">
-        <v>67.5706363125623</v>
+        <v>117.3078516632157</v>
       </c>
       <c r="D40" t="n">
-        <v>67.5706363125623</v>
+        <v>80.56034784330063</v>
       </c>
       <c r="E40" t="n">
-        <v>67.5706363125623</v>
+        <v>60.72548724167211</v>
       </c>
       <c r="F40" t="n">
-        <v>67.5706363125623</v>
+        <v>60.72548724167211</v>
       </c>
       <c r="G40" t="n">
-        <v>67.5706363125623</v>
+        <v>60.72548724167211</v>
       </c>
       <c r="H40" t="n">
-        <v>17.07394108938743</v>
+        <v>60.72548724167211</v>
       </c>
       <c r="I40" t="n">
         <v>17.07394108938743</v>
@@ -7354,28 +7354,28 @@
         <v>838.043915562647</v>
       </c>
       <c r="R40" t="n">
-        <v>790.5652194435537</v>
+        <v>838.043915562647</v>
       </c>
       <c r="S40" t="n">
-        <v>677.6549630794367</v>
+        <v>725.13365919853</v>
       </c>
       <c r="T40" t="n">
-        <v>560.7760285422801</v>
+        <v>725.13365919853</v>
       </c>
       <c r="U40" t="n">
-        <v>384.9340233705685</v>
+        <v>549.2916540268185</v>
       </c>
       <c r="V40" t="n">
-        <v>243.6186707571023</v>
+        <v>407.9763014133523</v>
       </c>
       <c r="W40" t="n">
-        <v>67.5706363125623</v>
+        <v>231.9282669688124</v>
       </c>
       <c r="X40" t="n">
-        <v>67.5706363125623</v>
+        <v>117.3078516632157</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.5706363125623</v>
+        <v>117.3078516632157</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>631.4884791648969</v>
+        <v>312.5549038290903</v>
       </c>
       <c r="C41" t="n">
-        <v>631.4884791648969</v>
+        <v>153.0881161611871</v>
       </c>
       <c r="D41" t="n">
-        <v>631.4884791648969</v>
+        <v>153.0881161611871</v>
       </c>
       <c r="E41" t="n">
-        <v>472.0216914969936</v>
+        <v>153.0881161611871</v>
       </c>
       <c r="F41" t="n">
-        <v>331.5633449191045</v>
+        <v>12.62976958329794</v>
       </c>
       <c r="G41" t="n">
-        <v>172.0965572512012</v>
+        <v>12.62976958329794</v>
       </c>
       <c r="H41" t="n">
         <v>12.62976958329794</v>
@@ -7412,19 +7412,19 @@
         <v>12.62976958329794</v>
       </c>
       <c r="K41" t="n">
-        <v>12.62976958329794</v>
+        <v>115.6447754942203</v>
       </c>
       <c r="L41" t="n">
-        <v>168.9231681766099</v>
+        <v>271.9381740875323</v>
       </c>
       <c r="M41" t="n">
-        <v>236.3400751368859</v>
+        <v>428.2315726808442</v>
       </c>
       <c r="N41" t="n">
-        <v>392.6334737301979</v>
+        <v>482.2935290222489</v>
       </c>
       <c r="O41" t="n">
-        <v>541.828423872846</v>
+        <v>631.4884791648969</v>
       </c>
       <c r="P41" t="n">
         <v>631.4884791648969</v>
@@ -7448,13 +7448,13 @@
         <v>631.4884791648969</v>
       </c>
       <c r="W41" t="n">
-        <v>631.4884791648969</v>
+        <v>472.0216914969936</v>
       </c>
       <c r="X41" t="n">
-        <v>631.4884791648969</v>
+        <v>312.5549038290903</v>
       </c>
       <c r="Y41" t="n">
-        <v>631.4884791648969</v>
+        <v>312.5549038290903</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>61.04625991585868</v>
+        <v>155.2948687503107</v>
       </c>
       <c r="C42" t="n">
-        <v>16.36213648645371</v>
+        <v>155.2948687503107</v>
       </c>
       <c r="D42" t="n">
-        <v>16.36213648645371</v>
+        <v>155.2948687503107</v>
       </c>
       <c r="E42" t="n">
-        <v>16.36213648645371</v>
+        <v>155.2948687503107</v>
       </c>
       <c r="F42" t="n">
-        <v>16.36213648645371</v>
+        <v>95.32757301688343</v>
       </c>
       <c r="G42" t="n">
-        <v>16.36213648645371</v>
+        <v>43.16400983918667</v>
       </c>
       <c r="H42" t="n">
-        <v>16.36213648645371</v>
+        <v>16.36213648645372</v>
       </c>
       <c r="I42" t="n">
         <v>12.62976958329794</v>
@@ -7500,7 +7500,7 @@
         <v>137.9873296411353</v>
       </c>
       <c r="N42" t="n">
-        <v>249.5071234649436</v>
+        <v>294.2807282344473</v>
       </c>
       <c r="O42" t="n">
         <v>405.8005220582556</v>
@@ -7515,25 +7515,25 @@
         <v>631.4884791648969</v>
       </c>
       <c r="S42" t="n">
-        <v>544.6383968552535</v>
+        <v>631.4884791648969</v>
       </c>
       <c r="T42" t="n">
-        <v>544.6383968552535</v>
+        <v>515.8691467633507</v>
       </c>
       <c r="U42" t="n">
-        <v>544.6383968552535</v>
+        <v>374.2127907394275</v>
       </c>
       <c r="V42" t="n">
-        <v>544.6383968552535</v>
+        <v>374.2127907394275</v>
       </c>
       <c r="W42" t="n">
-        <v>385.1716091873502</v>
+        <v>358.1359800559572</v>
       </c>
       <c r="X42" t="n">
-        <v>263.8873712215051</v>
+        <v>358.1359800559572</v>
       </c>
       <c r="Y42" t="n">
-        <v>142.694334696239</v>
+        <v>236.942943530691</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>20.36470948166351</v>
+        <v>142.0332260825915</v>
       </c>
       <c r="C43" t="n">
-        <v>20.36470948166351</v>
+        <v>142.0332260825915</v>
       </c>
       <c r="D43" t="n">
-        <v>20.36470948166351</v>
+        <v>142.0332260825915</v>
       </c>
       <c r="E43" t="n">
-        <v>20.36470948166351</v>
+        <v>80.68739473988614</v>
       </c>
       <c r="F43" t="n">
-        <v>20.36470948166351</v>
+        <v>20.36470948166352</v>
       </c>
       <c r="G43" t="n">
-        <v>20.36470948166351</v>
+        <v>20.36470948166352</v>
       </c>
       <c r="H43" t="n">
-        <v>20.36470948166351</v>
+        <v>20.36470948166352</v>
       </c>
       <c r="I43" t="n">
-        <v>20.36470948166351</v>
+        <v>20.36470948166352</v>
       </c>
       <c r="J43" t="n">
         <v>12.62976958329794</v>
       </c>
       <c r="K43" t="n">
-        <v>75.42754639679185</v>
+        <v>75.42754639679191</v>
       </c>
       <c r="L43" t="n">
-        <v>187.5862451256228</v>
+        <v>187.5862451256229</v>
       </c>
       <c r="M43" t="n">
         <v>311.618857038963</v>
@@ -7597,22 +7597,22 @@
         <v>631.0233744836812</v>
       </c>
       <c r="T43" t="n">
-        <v>631.0233744836812</v>
+        <v>487.3425665937916</v>
       </c>
       <c r="U43" t="n">
-        <v>471.5565868157779</v>
+        <v>487.3425665937916</v>
       </c>
       <c r="V43" t="n">
-        <v>455.4791027117387</v>
+        <v>327.8757789258883</v>
       </c>
       <c r="W43" t="n">
-        <v>296.0123150438354</v>
+        <v>327.8757789258883</v>
       </c>
       <c r="X43" t="n">
-        <v>154.5900263855059</v>
+        <v>186.4534902675587</v>
       </c>
       <c r="Y43" t="n">
-        <v>20.36470948166351</v>
+        <v>186.4534902675587</v>
       </c>
     </row>
     <row r="44">
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>263.3564402303034</v>
@@ -8699,10 +8699,10 @@
         <v>257.9362584875889</v>
       </c>
       <c r="N11" t="n">
-        <v>255.8883403615407</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>256.5734881866366</v>
       </c>
       <c r="P11" t="n">
         <v>231.2329957552695</v>
@@ -8769,16 +8769,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M12" t="n">
-        <v>169.7240591823345</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>169.0715212093943</v>
@@ -8939,10 +8939,10 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>256.5734881866366</v>
       </c>
       <c r="P14" t="n">
-        <v>257.7082725202194</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,19 +9006,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>164.3167157393088</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M15" t="n">
-        <v>168.6093106869682</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>161.5644326746464</v>
@@ -9164,13 +9164,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>303.2320201314153</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>315.5493044973741</v>
       </c>
       <c r="M17" t="n">
-        <v>310.1291227546596</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
         <v>312.5552326830257</v>
@@ -9179,7 +9179,7 @@
         <v>313.2403805081215</v>
       </c>
       <c r="P17" t="n">
-        <v>314.3751648417043</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>217.6243285017459</v>
       </c>
       <c r="L18" t="n">
-        <v>221.6965488663089</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>225.2762030084531</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>211.1246016107202</v>
+        <v>214.4838811697681</v>
       </c>
       <c r="O18" t="n">
         <v>225.7384135308792</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>217.116576500765</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9489,16 +9489,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N24" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>184.6294155606472</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9969,7 +9969,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10440,13 +10440,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10592,13 +10592,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>340.2681809469343</v>
+        <v>443.7704968446156</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>277.2978653650641</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>351.9786433972171</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>355.5582975393612</v>
+        <v>179.1516856726524</v>
       </c>
       <c r="N36" t="n">
-        <v>336.1427731302785</v>
+        <v>344.7659757006762</v>
       </c>
       <c r="O36" t="n">
         <v>356.0205080617874</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10829,10 +10829,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>443.7704968446156</v>
+        <v>340.2681809469343</v>
       </c>
       <c r="N38" t="n">
-        <v>333.8446085143028</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -10914,13 +10914,13 @@
         <v>344.7659757006762</v>
       </c>
       <c r="O39" t="n">
-        <v>356.0205080617874</v>
+        <v>249.709409844906</v>
       </c>
       <c r="P39" t="n">
-        <v>268.6799548114478</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,22 +11060,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>393.6385347612115</v>
       </c>
       <c r="M41" t="n">
-        <v>298.4441190457334</v>
+        <v>388.2183530184969</v>
       </c>
       <c r="N41" t="n">
-        <v>387.2851833878152</v>
+        <v>284.0211003050805</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11148,10 +11148,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>243.9879684710185</v>
+        <v>289.2138318745575</v>
       </c>
       <c r="O42" t="n">
-        <v>300.4683642356687</v>
+        <v>255.2425008321296</v>
       </c>
       <c r="P42" t="n">
         <v>291.8465272055545</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>348.4418481996493</v>
+        <v>372.7431424489358</v>
       </c>
       <c r="C11" t="n">
         <v>355.2821925564627</v>
@@ -23267,16 +23267,16 @@
         <v>371.939670857717</v>
       </c>
       <c r="F11" t="n">
-        <v>369.2953212668505</v>
+        <v>372.5840522778802</v>
       </c>
       <c r="G11" t="n">
-        <v>405.3120383005902</v>
+        <v>377.7220130402741</v>
       </c>
       <c r="H11" t="n">
-        <v>329.4841029012223</v>
+        <v>301.8940776409062</v>
       </c>
       <c r="I11" t="n">
-        <v>200.4851903558611</v>
+        <v>172.895165095545</v>
       </c>
       <c r="J11" t="n">
         <v>1.958590140067713</v>
@@ -23315,7 +23315,7 @@
         <v>241.3549536932917</v>
       </c>
       <c r="V11" t="n">
-        <v>290.171533995274</v>
+        <v>317.7615592555901</v>
       </c>
       <c r="W11" t="n">
         <v>339.2502695028682</v>
@@ -23324,7 +23324,7 @@
         <v>359.7404014639242</v>
       </c>
       <c r="Y11" t="n">
-        <v>348.6572141811927</v>
+        <v>376.2472394415088</v>
       </c>
     </row>
     <row r="12">
@@ -23346,7 +23346,7 @@
         <v>147.6543812408561</v>
       </c>
       <c r="F12" t="n">
-        <v>110.7772189295526</v>
+        <v>135.0785131788391</v>
       </c>
       <c r="G12" t="n">
         <v>127.3528179486658</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>62.57710967778219</v>
+        <v>65.86584068881189</v>
       </c>
       <c r="S12" t="n">
         <v>134.1024466289769</v>
@@ -23391,7 +23391,7 @@
         <v>162.5840042199607</v>
       </c>
       <c r="U12" t="n">
-        <v>215.95068286643</v>
+        <v>188.3606576061139</v>
       </c>
       <c r="V12" t="n">
         <v>222.8098879348805</v>
@@ -23428,19 +23428,19 @@
         <v>135.4303488083864</v>
       </c>
       <c r="G13" t="n">
-        <v>158.000280143914</v>
+        <v>130.4102548835978</v>
       </c>
       <c r="H13" t="n">
         <v>152.2364732928948</v>
       </c>
       <c r="I13" t="n">
-        <v>145.4597757127135</v>
+        <v>121.158481463427</v>
       </c>
       <c r="J13" t="n">
-        <v>55.77845564181183</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>12.27879261133805</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>186.4358735621113</v>
       </c>
       <c r="T13" t="n">
-        <v>205.9323885757883</v>
+        <v>217.9548902137367</v>
       </c>
       <c r="U13" t="n">
         <v>276.3283301419461</v>
@@ -23501,7 +23501,7 @@
         <v>318.2981871486404</v>
       </c>
       <c r="E14" t="n">
-        <v>321.2442213509327</v>
+        <v>345.5455156002192</v>
       </c>
       <c r="F14" t="n">
         <v>342.9011660093527</v>
@@ -23510,7 +23510,7 @@
         <v>351.3278577827763</v>
       </c>
       <c r="H14" t="n">
-        <v>303.0899476437245</v>
+        <v>275.4999223834084</v>
       </c>
       <c r="I14" t="n">
         <v>174.0910350983633</v>
@@ -23540,10 +23540,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>85.89423820879094</v>
+        <v>113.4842634691071</v>
       </c>
       <c r="S14" t="n">
-        <v>172.6352151142027</v>
+        <v>148.3339208649163</v>
       </c>
       <c r="T14" t="n">
         <v>186.7109950920888</v>
@@ -23571,16 +23571,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>102.5583039175086</v>
+        <v>130.1483291778247</v>
       </c>
       <c r="C15" t="n">
         <v>136.3236445162731</v>
       </c>
       <c r="D15" t="n">
-        <v>111.0602110925961</v>
+        <v>83.47018583228001</v>
       </c>
       <c r="E15" t="n">
-        <v>121.2602259833583</v>
+        <v>93.6702007230422</v>
       </c>
       <c r="F15" t="n">
         <v>108.6843579213413</v>
@@ -23589,10 +23589,10 @@
         <v>73.36863743085189</v>
       </c>
       <c r="H15" t="n">
-        <v>75.85058976445387</v>
+        <v>51.54929551516741</v>
       </c>
       <c r="I15" t="n">
-        <v>53.01177837937248</v>
+        <v>53.01177837937247</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>63.77297968060054</v>
+        <v>63.77297968060052</v>
       </c>
       <c r="S15" t="n">
         <v>135.2983166317952</v>
@@ -23637,10 +23637,10 @@
         <v>215.310128688877</v>
       </c>
       <c r="X15" t="n">
-        <v>145.0868364821484</v>
+        <v>169.3881307314349</v>
       </c>
       <c r="Y15" t="n">
-        <v>141.7078160449456</v>
+        <v>169.2978413052618</v>
       </c>
     </row>
     <row r="16">
@@ -23674,7 +23674,7 @@
         <v>119.0656204552157</v>
       </c>
       <c r="J16" t="n">
-        <v>32.67303139534372</v>
+        <v>56.97432564463016</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,16 +23695,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.18716351933565</v>
+        <v>22.18716351933563</v>
       </c>
       <c r="R16" t="n">
-        <v>113.3185116448107</v>
+        <v>140.9085369051269</v>
       </c>
       <c r="S16" t="n">
-        <v>160.0417183046135</v>
+        <v>187.6317435649296</v>
       </c>
       <c r="T16" t="n">
-        <v>191.5607349562389</v>
+        <v>163.9707096959227</v>
       </c>
       <c r="U16" t="n">
         <v>249.9341748844483</v>
@@ -23716,10 +23716,10 @@
         <v>250.1381438645484</v>
       </c>
       <c r="X16" t="n">
-        <v>189.3248009169945</v>
+        <v>161.7347756566784</v>
       </c>
       <c r="Y16" t="n">
-        <v>182.1997988800522</v>
+        <v>157.8985046307657</v>
       </c>
     </row>
     <row r="17">
@@ -23738,19 +23738,19 @@
         <v>318.2981871486404</v>
       </c>
       <c r="E17" t="n">
-        <v>262.4033465137844</v>
+        <v>345.5455156002192</v>
       </c>
       <c r="F17" t="n">
-        <v>287.3490221832341</v>
+        <v>370.4911912696688</v>
       </c>
       <c r="G17" t="n">
-        <v>295.7757139566577</v>
+        <v>378.9178830430924</v>
       </c>
       <c r="H17" t="n">
-        <v>229.8583251123928</v>
+        <v>303.0899476437245</v>
       </c>
       <c r="I17" t="n">
-        <v>174.0910350983633</v>
+        <v>100.8594125670316</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,13 +23777,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>113.4842634691071</v>
+        <v>30.34209438267229</v>
       </c>
       <c r="S17" t="n">
-        <v>172.6352151142027</v>
+        <v>89.49304602776795</v>
       </c>
       <c r="T17" t="n">
-        <v>186.7109950920888</v>
+        <v>103.568826005654</v>
       </c>
       <c r="U17" t="n">
         <v>214.9607984357939</v>
@@ -23808,7 +23808,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>47.00616009138996</v>
+        <v>130.1483291778247</v>
       </c>
       <c r="C18" t="n">
         <v>136.3236445162731</v>
@@ -23817,7 +23817,7 @@
         <v>111.0602110925961</v>
       </c>
       <c r="E18" t="n">
-        <v>38.11805689692356</v>
+        <v>121.2602259833583</v>
       </c>
       <c r="F18" t="n">
         <v>108.6843579213413</v>
@@ -23826,10 +23826,10 @@
         <v>100.958662691168</v>
       </c>
       <c r="H18" t="n">
-        <v>75.85058976445387</v>
+        <v>75.85058976445384</v>
       </c>
       <c r="I18" t="n">
-        <v>53.01177837937248</v>
+        <v>53.01177837937247</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,25 +23859,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>125.8396737810641</v>
+        <v>52.15614754536043</v>
       </c>
       <c r="T18" t="n">
-        <v>163.779874222779</v>
+        <v>80.63770513634421</v>
       </c>
       <c r="U18" t="n">
-        <v>189.5565276089322</v>
+        <v>180.097884758201</v>
       </c>
       <c r="V18" t="n">
         <v>196.4157326773827</v>
       </c>
       <c r="W18" t="n">
-        <v>215.310128688877</v>
+        <v>132.1679596024422</v>
       </c>
       <c r="X18" t="n">
         <v>169.3881307314349</v>
       </c>
       <c r="Y18" t="n">
-        <v>86.15567221882698</v>
+        <v>169.2978413052618</v>
       </c>
     </row>
     <row r="19">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.30495662345992</v>
+        <v>60.3049566234599</v>
       </c>
       <c r="C19" t="n">
-        <v>130.8619666265852</v>
+        <v>57.63034409525348</v>
       </c>
       <c r="D19" t="n">
         <v>112.2306185461698</v>
@@ -23905,13 +23905,13 @@
         <v>131.6061248864162</v>
       </c>
       <c r="H19" t="n">
-        <v>42.70014894896219</v>
+        <v>125.842318035397</v>
       </c>
       <c r="I19" t="n">
         <v>119.0656204552157</v>
       </c>
       <c r="J19" t="n">
-        <v>56.97432564463018</v>
+        <v>56.97432564463016</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,16 +23932,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>49.77718877965177</v>
       </c>
       <c r="R19" t="n">
         <v>140.9085369051269</v>
       </c>
       <c r="S19" t="n">
-        <v>164.1773098132497</v>
+        <v>187.6317435649296</v>
       </c>
       <c r="T19" t="n">
-        <v>191.5607349562389</v>
+        <v>108.4185658698041</v>
       </c>
       <c r="U19" t="n">
         <v>249.9341748844483</v>
@@ -23950,10 +23950,10 @@
         <v>215.7527888517854</v>
       </c>
       <c r="W19" t="n">
-        <v>166.9959747781136</v>
+        <v>250.1381438645484</v>
       </c>
       <c r="X19" t="n">
-        <v>189.3248009169945</v>
+        <v>106.1826318305598</v>
       </c>
       <c r="Y19" t="n">
         <v>182.1997988800522</v>
@@ -23966,25 +23966,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>103.3273087726478</v>
+        <v>344.3415976503068</v>
       </c>
       <c r="C20" t="n">
-        <v>85.86635888017474</v>
+        <v>326.8806477578338</v>
       </c>
       <c r="D20" t="n">
-        <v>316.2907976075092</v>
+        <v>316.2907976075091</v>
       </c>
       <c r="E20" t="n">
-        <v>343.538126059088</v>
+        <v>102.5238371814289</v>
       </c>
       <c r="F20" t="n">
-        <v>368.4838017285377</v>
+        <v>127.4695128508786</v>
       </c>
       <c r="G20" t="n">
-        <v>376.9104935019613</v>
+        <v>376.9104935019612</v>
       </c>
       <c r="H20" t="n">
-        <v>301.0825581025934</v>
+        <v>301.0825581025933</v>
       </c>
       <c r="I20" t="n">
         <v>172.0836455572321</v>
@@ -24023,19 +24023,19 @@
         <v>184.7036055509576</v>
       </c>
       <c r="U20" t="n">
-        <v>212.9534088946627</v>
+        <v>0.6680232512207169</v>
       </c>
       <c r="V20" t="n">
-        <v>289.3600144569612</v>
+        <v>48.3457255793021</v>
       </c>
       <c r="W20" t="n">
-        <v>310.8487247042393</v>
+        <v>310.8487247042392</v>
       </c>
       <c r="X20" t="n">
-        <v>119.0534710218533</v>
+        <v>331.3388566652952</v>
       </c>
       <c r="Y20" t="n">
-        <v>106.8314057652208</v>
+        <v>347.8456946428798</v>
       </c>
     </row>
     <row r="21">
@@ -24048,13 +24048,13 @@
         <v>128.1409396366936</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>134.316254975142</v>
       </c>
       <c r="D21" t="n">
         <v>109.052821551465</v>
       </c>
       <c r="E21" t="n">
-        <v>60.62311437938146</v>
+        <v>108.3380303895577</v>
       </c>
       <c r="F21" t="n">
         <v>106.6769683802101</v>
@@ -24063,7 +24063,7 @@
         <v>98.95127315003685</v>
       </c>
       <c r="H21" t="n">
-        <v>73.8432002233227</v>
+        <v>73.84320022332268</v>
       </c>
       <c r="I21" t="n">
         <v>51.0043888382413</v>
@@ -24093,16 +24093,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>61.76559013946936</v>
+        <v>61.76559013946935</v>
       </c>
       <c r="S21" t="n">
         <v>133.290927090664</v>
       </c>
       <c r="T21" t="n">
-        <v>161.7724846816478</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>187.549138067801</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24114,7 +24114,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>167.2904517641306</v>
       </c>
     </row>
     <row r="22">
@@ -24148,7 +24148,7 @@
         <v>117.0582309140845</v>
       </c>
       <c r="J22" t="n">
-        <v>54.966936103499</v>
+        <v>54.96693610349899</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.76979923852061</v>
+        <v>47.7697992385206</v>
       </c>
       <c r="R22" t="n">
         <v>138.9011473639957</v>
@@ -24184,13 +24184,13 @@
         <v>247.9267853433171</v>
       </c>
       <c r="V22" t="n">
-        <v>120.2969034621013</v>
+        <v>213.7453993106542</v>
       </c>
       <c r="W22" t="n">
-        <v>7.116465445758166</v>
+        <v>100.9853809730686</v>
       </c>
       <c r="X22" t="n">
-        <v>187.3174113758634</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>180.192409338921</v>
@@ -24203,25 +24203,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>132.0562120068647</v>
+        <v>344.3415976503068</v>
       </c>
       <c r="C23" t="n">
         <v>326.8806477578338</v>
       </c>
       <c r="D23" t="n">
-        <v>75.27650872985015</v>
+        <v>316.2907976075091</v>
       </c>
       <c r="E23" t="n">
         <v>343.538126059088</v>
       </c>
       <c r="F23" t="n">
-        <v>368.4838017285377</v>
+        <v>368.4838017285376</v>
       </c>
       <c r="G23" t="n">
-        <v>376.9104935019613</v>
+        <v>164.6251078585191</v>
       </c>
       <c r="H23" t="n">
-        <v>301.0825581025934</v>
+        <v>301.0825581025933</v>
       </c>
       <c r="I23" t="n">
         <v>172.0836455572321</v>
@@ -24266,10 +24266,10 @@
         <v>289.3600144569612</v>
       </c>
       <c r="W23" t="n">
-        <v>310.8487247042393</v>
+        <v>69.83443582658015</v>
       </c>
       <c r="X23" t="n">
-        <v>90.32456778763623</v>
+        <v>90.32456778763617</v>
       </c>
       <c r="Y23" t="n">
         <v>106.8314057652208</v>
@@ -24294,13 +24294,13 @@
         <v>119.2528364422272</v>
       </c>
       <c r="F24" t="n">
-        <v>75.50347602387022</v>
+        <v>106.6769683802101</v>
       </c>
       <c r="G24" t="n">
         <v>98.95127315003685</v>
       </c>
       <c r="H24" t="n">
-        <v>73.8432002233227</v>
+        <v>73.84320022332268</v>
       </c>
       <c r="I24" t="n">
         <v>51.0043888382413</v>
@@ -24330,16 +24330,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>61.76559013946936</v>
+        <v>61.76559013946935</v>
       </c>
       <c r="S24" t="n">
-        <v>133.290927090664</v>
+        <v>127.8940881204774</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>161.7724846816478</v>
       </c>
       <c r="U24" t="n">
-        <v>187.549138067801</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>141.4397361687635</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>128.8545770854541</v>
       </c>
       <c r="D25" t="n">
         <v>110.2232290050386</v>
@@ -24385,7 +24385,7 @@
         <v>117.0582309140845</v>
       </c>
       <c r="J25" t="n">
-        <v>54.966936103499</v>
+        <v>54.96693610349899</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,22 +24406,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>47.7697992385206</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>138.9011473639957</v>
       </c>
       <c r="S25" t="n">
-        <v>166.6870929855569</v>
+        <v>185.6243540237985</v>
       </c>
       <c r="T25" t="n">
         <v>189.5533454151077</v>
       </c>
       <c r="U25" t="n">
-        <v>247.9267853433171</v>
+        <v>6.912496465658052</v>
       </c>
       <c r="V25" t="n">
-        <v>213.7453993106542</v>
+        <v>120.2969034621013</v>
       </c>
       <c r="W25" t="n">
         <v>248.1307543234172</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>327.798442245646</v>
+        <v>86.78415336798696</v>
       </c>
       <c r="C26" t="n">
-        <v>310.337492353173</v>
+        <v>69.32320347551394</v>
       </c>
       <c r="D26" t="n">
         <v>299.7476422028484</v>
@@ -24452,16 +24452,16 @@
         <v>326.9949706544272</v>
       </c>
       <c r="F26" t="n">
-        <v>110.9263574462178</v>
+        <v>351.9406463238769</v>
       </c>
       <c r="G26" t="n">
-        <v>119.3530492196414</v>
+        <v>360.3673380973005</v>
       </c>
       <c r="H26" t="n">
-        <v>284.5394026979326</v>
+        <v>43.52511382027353</v>
       </c>
       <c r="I26" t="n">
-        <v>155.5404901525714</v>
+        <v>155.5404901525713</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24488,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>94.93371852331512</v>
+        <v>94.93371852331509</v>
       </c>
       <c r="S26" t="n">
-        <v>65.35569928360835</v>
+        <v>154.0846701684108</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>168.1604501462968</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>196.4102534900019</v>
       </c>
       <c r="V26" t="n">
         <v>272.8168590523003</v>
@@ -24509,7 +24509,7 @@
         <v>314.7957012606345</v>
       </c>
       <c r="Y26" t="n">
-        <v>331.302539238219</v>
+        <v>119.017153594777</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24519,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>111.5977842320328</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>92.50966614680416</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>102.7096810375664</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>90.13381297554929</v>
       </c>
       <c r="G27" t="n">
-        <v>54.16524464024192</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>57.3000448186619</v>
+        <v>17.48117407573297</v>
       </c>
       <c r="I27" t="n">
-        <v>34.46123343358052</v>
+        <v>34.4612334335805</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.22243473480855</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24576,19 +24576,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>171.0059826631403</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>177.8651877315907</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>196.759583743085</v>
       </c>
       <c r="X27" t="n">
         <v>150.8375857856429</v>
       </c>
       <c r="Y27" t="n">
-        <v>150.7472963594698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>124.8965807641027</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>112.3114216807933</v>
+        <v>112.3114216807932</v>
       </c>
       <c r="D28" t="n">
-        <v>93.6800736003778</v>
+        <v>93.68007360037777</v>
       </c>
       <c r="E28" t="n">
-        <v>91.49856322873461</v>
+        <v>91.49856322873458</v>
       </c>
       <c r="F28" t="n">
-        <v>90.48564860509669</v>
+        <v>90.48564860509666</v>
       </c>
       <c r="G28" t="n">
         <v>113.0555799406242</v>
@@ -24622,7 +24622,7 @@
         <v>100.5150755094237</v>
       </c>
       <c r="J28" t="n">
-        <v>38.42378069883821</v>
+        <v>38.42378069883819</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.22664383385982</v>
+        <v>31.2266438338598</v>
       </c>
       <c r="R28" t="n">
         <v>122.3579919593349</v>
@@ -24655,19 +24655,19 @@
         <v>173.0101900104469</v>
       </c>
       <c r="U28" t="n">
-        <v>228.427008364546</v>
+        <v>231.3836299386563</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>197.2022439059934</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>231.5875989187564</v>
       </c>
       <c r="X28" t="n">
-        <v>170.7742559712026</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>163.6492539342602</v>
+        <v>27.57362627070512</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>56.20562224241081</v>
+        <v>268.4910078858529</v>
       </c>
       <c r="C29" t="n">
-        <v>251.0300579933799</v>
+        <v>10.01576911572087</v>
       </c>
       <c r="D29" t="n">
         <v>240.4402078430553</v>
       </c>
       <c r="E29" t="n">
-        <v>26.67324741697507</v>
+        <v>267.6875362946341</v>
       </c>
       <c r="F29" t="n">
-        <v>51.61892308642473</v>
+        <v>292.6332119640838</v>
       </c>
       <c r="G29" t="n">
-        <v>301.0599037375074</v>
+        <v>60.04561485984834</v>
       </c>
       <c r="H29" t="n">
-        <v>225.2319683381395</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>96.23305579277827</v>
+        <v>96.23305579277829</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24725,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>35.62628416352204</v>
+        <v>11.18882957568208</v>
       </c>
       <c r="S29" t="n">
-        <v>94.7772358086177</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>108.8530157865037</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>137.1028191302088</v>
+        <v>137.1028191302089</v>
       </c>
       <c r="V29" t="n">
         <v>213.5094246925073</v>
@@ -24746,7 +24746,7 @@
         <v>255.4882669008414</v>
       </c>
       <c r="Y29" t="n">
-        <v>30.98081600076688</v>
+        <v>271.995104878426</v>
       </c>
     </row>
     <row r="30">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>65.58914640430966</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>53.0039873210002</v>
+        <v>53.00398732100021</v>
       </c>
       <c r="D31" t="n">
-        <v>34.37263924058472</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>32.19112886894153</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>31.17821424530361</v>
+        <v>31.17821424530362</v>
       </c>
       <c r="G31" t="n">
-        <v>53.74814558083112</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>47.98433872981194</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>41.20764114963065</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,22 +24889,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>113.7027556506539</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>145.1971935013085</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>172.2801645589634</v>
       </c>
       <c r="X31" t="n">
-        <v>111.4668216114095</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>44.62025212540596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24917,25 +24917,25 @@
         <v>268.4910078858529</v>
       </c>
       <c r="C32" t="n">
-        <v>251.0300579933799</v>
+        <v>147.023607101838</v>
       </c>
       <c r="D32" t="n">
-        <v>240.4402078430553</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>267.6875362946341</v>
+        <v>26.67324741697507</v>
       </c>
       <c r="F32" t="n">
-        <v>292.6332119640838</v>
+        <v>51.61892308642473</v>
       </c>
       <c r="G32" t="n">
-        <v>60.04561485984834</v>
+        <v>301.0599037375074</v>
       </c>
       <c r="H32" t="n">
         <v>225.2319683381395</v>
       </c>
       <c r="I32" t="n">
-        <v>96.23305579277827</v>
+        <v>96.23305579277829</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>35.62628416352204</v>
+        <v>35.62628416352206</v>
       </c>
       <c r="S32" t="n">
-        <v>89.98512091980916</v>
+        <v>94.77723580861772</v>
       </c>
       <c r="T32" t="n">
-        <v>108.8530157865037</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>137.1028191302088</v>
+        <v>137.1028191302089</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>213.5094246925073</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>234.9981349397854</v>
       </c>
       <c r="X32" t="n">
-        <v>14.47397802318233</v>
+        <v>255.4882669008414</v>
       </c>
       <c r="Y32" t="n">
-        <v>271.9951048784259</v>
+        <v>271.995104878426</v>
       </c>
     </row>
     <row r="33">
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.6932259154040139</v>
+        <v>65.58914640430967</v>
       </c>
       <c r="C34" t="n">
-        <v>53.0039873210002</v>
+        <v>53.00398732100021</v>
       </c>
       <c r="D34" t="n">
-        <v>34.37263924058472</v>
+        <v>34.37263924058473</v>
       </c>
       <c r="E34" t="n">
-        <v>32.19112886894153</v>
+        <v>32.19112886894155</v>
       </c>
       <c r="F34" t="n">
-        <v>31.17821424530361</v>
+        <v>31.17821424530362</v>
       </c>
       <c r="G34" t="n">
-        <v>53.74814558083112</v>
+        <v>53.74814558083114</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>47.98433872981195</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>63.05055759954186</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>113.7027556506539</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>137.8948095462003</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>172.2801645589633</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>20.54140163625075</v>
       </c>
     </row>
     <row r="35">
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>57.07413380964121</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C35" t="n">
-        <v>253.0374475345111</v>
+        <v>39.61318391716819</v>
       </c>
       <c r="D35" t="n">
         <v>242.4475973841865</v>
@@ -25211,13 +25211,13 @@
         <v>139.11020867134</v>
       </c>
       <c r="V35" t="n">
-        <v>215.5168142336385</v>
+        <v>27.53272283948289</v>
       </c>
       <c r="W35" t="n">
         <v>23.58126086357365</v>
       </c>
       <c r="X35" t="n">
-        <v>69.51156504781702</v>
+        <v>257.4956564419726</v>
       </c>
       <c r="Y35" t="n">
         <v>60.57823080221422</v>
@@ -25236,7 +25236,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>35.20962132814229</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25245,7 +25245,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>10.02852827847238</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25299,7 +25299,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>45.23814960661468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>3.290256618205881</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F37" t="n">
         <v>33.18560378643478</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,22 +25360,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T37" t="n">
-        <v>115.710145191785</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>174.0835851199944</v>
       </c>
       <c r="V37" t="n">
-        <v>139.9021990873316</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>100.3385546638835</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25394,19 +25394,19 @@
         <v>253.0374475345111</v>
       </c>
       <c r="D38" t="n">
-        <v>29.02333376684359</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E38" t="n">
         <v>269.6949258357653</v>
       </c>
       <c r="F38" t="n">
-        <v>81.21633788787207</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G38" t="n">
         <v>303.0672932786386</v>
       </c>
       <c r="H38" t="n">
-        <v>137.4957118190245</v>
+        <v>13.81509426192778</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25442,22 +25442,22 @@
         <v>96.78462534974888</v>
       </c>
       <c r="T38" t="n">
-        <v>110.8604053276349</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>139.11020867134</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>215.5168142336385</v>
+        <v>162.3195185550244</v>
       </c>
       <c r="W38" t="n">
         <v>237.0055244809166</v>
       </c>
       <c r="X38" t="n">
-        <v>44.07139282462967</v>
+        <v>257.4956564419726</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.0024944195571</v>
+        <v>60.57823080221422</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25476,7 +25476,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>6.796124941071433</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>32.83376815688742</v>
@@ -25533,7 +25533,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>93.53754096698101</v>
+        <v>46.03592649468155</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>55.01137686213137</v>
       </c>
       <c r="D40" t="n">
-        <v>36.38002878171589</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>34.19851841007271</v>
+        <v>14.56200641446047</v>
       </c>
       <c r="F40" t="n">
         <v>33.18560378643478</v>
@@ -25564,10 +25564,10 @@
         <v>55.7555351219623</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I40" t="n">
-        <v>43.21503069076182</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.05403798277062</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>113.4742111525407</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>106.3492091155983</v>
@@ -25628,25 +25628,25 @@
         <v>297.0322520461897</v>
       </c>
       <c r="C41" t="n">
-        <v>279.5713021537167</v>
+        <v>121.6991823624925</v>
       </c>
       <c r="D41" t="n">
         <v>268.9814520033921</v>
       </c>
       <c r="E41" t="n">
-        <v>138.3566606637467</v>
+        <v>296.2287804549709</v>
       </c>
       <c r="F41" t="n">
-        <v>182.1206930123103</v>
+        <v>182.1206930123104</v>
       </c>
       <c r="G41" t="n">
-        <v>171.7290281066199</v>
+        <v>329.6011478978442</v>
       </c>
       <c r="H41" t="n">
-        <v>95.90109270725205</v>
+        <v>253.7732124984763</v>
       </c>
       <c r="I41" t="n">
-        <v>124.774299953115</v>
+        <v>124.7742999531151</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>64.16752832385882</v>
+        <v>64.16752832385883</v>
       </c>
       <c r="S41" t="n">
         <v>123.3184799689545</v>
@@ -25682,16 +25682,16 @@
         <v>137.3942599468405</v>
       </c>
       <c r="U41" t="n">
-        <v>165.6440632905456</v>
+        <v>165.6440632905457</v>
       </c>
       <c r="V41" t="n">
-        <v>242.050668852844</v>
+        <v>242.0506688528441</v>
       </c>
       <c r="W41" t="n">
-        <v>263.5393791001221</v>
+        <v>105.6672593088979</v>
       </c>
       <c r="X41" t="n">
-        <v>284.0295110611781</v>
+        <v>126.157391269954</v>
       </c>
       <c r="Y41" t="n">
         <v>300.5363490387628</v>
@@ -25707,22 +25707,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>42.76962717591395</v>
+        <v>87.00690937102489</v>
       </c>
       <c r="D42" t="n">
-        <v>61.74347594734789</v>
+        <v>61.7434759473479</v>
       </c>
       <c r="E42" t="n">
-        <v>71.94349083811008</v>
+        <v>71.94349083811009</v>
       </c>
       <c r="F42" t="n">
-        <v>59.36762277609301</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>51.64192754591977</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>26.5338546192056</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25752,25 +25752,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.45624453535227</v>
+        <v>14.45624453535228</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>85.98158148654697</v>
       </c>
       <c r="T42" t="n">
-        <v>114.4631390775307</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>140.239792463684</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>147.0989975321344</v>
       </c>
       <c r="W42" t="n">
-        <v>8.121273752404505</v>
+        <v>150.0773509669931</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>120.0713955861866</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>94.13039056464643</v>
+        <v>50.15432902152894</v>
       </c>
       <c r="C43" t="n">
-        <v>81.54523148133697</v>
+        <v>81.54523148133698</v>
       </c>
       <c r="D43" t="n">
-        <v>62.91388340092149</v>
+        <v>62.91388340092151</v>
       </c>
       <c r="E43" t="n">
-        <v>60.73237302927831</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>59.71945840564038</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>82.28938974116789</v>
+        <v>82.28938974116791</v>
       </c>
       <c r="H43" t="n">
-        <v>76.52558289014871</v>
+        <v>76.52558289014873</v>
       </c>
       <c r="I43" t="n">
-        <v>69.74888530996742</v>
+        <v>69.74888530996743</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>91.59180175987862</v>
+        <v>91.59180175987863</v>
       </c>
       <c r="S43" t="n">
         <v>138.3150084196814</v>
       </c>
       <c r="T43" t="n">
-        <v>142.2439998109906</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>42.74531994797579</v>
+        <v>200.6174397392001</v>
       </c>
       <c r="V43" t="n">
-        <v>150.5193444435384</v>
+        <v>8.56393391531293</v>
       </c>
       <c r="W43" t="n">
-        <v>42.9492889280759</v>
+        <v>200.8214087193002</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>132.883063734804</v>
       </c>
     </row>
     <row r="44">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>286572.4298453351</v>
+        <v>286572.429845335</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498863.7879985392</v>
+        <v>498863.7879985393</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>601885.8981783679</v>
+        <v>601885.8981783678</v>
       </c>
     </row>
     <row r="14">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>757830.6133132605</v>
+        <v>757830.6133132604</v>
       </c>
       <c r="C2" t="n">
-        <v>757830.6133132603</v>
+        <v>757830.6133132601</v>
       </c>
       <c r="D2" t="n">
-        <v>757830.6133132605</v>
+        <v>757830.6133132604</v>
       </c>
       <c r="E2" t="n">
         <v>237162.899848705</v>
@@ -26326,7 +26326,7 @@
         <v>295784.091210524</v>
       </c>
       <c r="G2" t="n">
-        <v>324899.0831161663</v>
+        <v>324899.0831161662</v>
       </c>
       <c r="H2" t="n">
         <v>398727.6651943591</v>
@@ -26335,19 +26335,19 @@
         <v>398727.6651943591</v>
       </c>
       <c r="J2" t="n">
-        <v>437368.3291814504</v>
+        <v>437368.3291814505</v>
       </c>
       <c r="K2" t="n">
         <v>574268.3856427072</v>
       </c>
       <c r="L2" t="n">
-        <v>574268.3856427073</v>
+        <v>574268.385642707</v>
       </c>
       <c r="M2" t="n">
-        <v>557734.5858816351</v>
+        <v>557734.5858816359</v>
       </c>
       <c r="N2" t="n">
-        <v>557734.5858816357</v>
+        <v>557734.5858816358</v>
       </c>
       <c r="O2" t="n">
         <v>472818.4670719471</v>
@@ -26375,22 +26375,22 @@
         <v>16230.33393381052</v>
       </c>
       <c r="F3" t="n">
-        <v>21115.32420599823</v>
+        <v>21115.32420599825</v>
       </c>
       <c r="G3" t="n">
-        <v>15226.00934058173</v>
+        <v>15226.00934058174</v>
       </c>
       <c r="H3" t="n">
-        <v>44201.23040165538</v>
+        <v>44201.23040165536</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>21227.08369536447</v>
+        <v>21227.08369536449</v>
       </c>
       <c r="K3" t="n">
-        <v>68561.27169383269</v>
+        <v>68561.27169383268</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415532.5557256225</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="C4" t="n">
-        <v>415532.5557256226</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="D4" t="n">
-        <v>415532.5557256225</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>90609.41593303523</v>
+        <v>89793.03066224877</v>
       </c>
       <c r="F4" t="n">
-        <v>126781.3575113144</v>
+        <v>125964.9722405279</v>
       </c>
       <c r="G4" t="n">
-        <v>138493.2396936261</v>
+        <v>137579.5593271549</v>
       </c>
       <c r="H4" t="n">
-        <v>166559.7523502013</v>
+        <v>165376.4525885598</v>
       </c>
       <c r="I4" t="n">
-        <v>166559.7523502013</v>
+        <v>165376.4525885598</v>
       </c>
       <c r="J4" t="n">
-        <v>190433.4308253069</v>
+        <v>189250.1310636654</v>
       </c>
       <c r="K4" t="n">
-        <v>275031.9162557056</v>
+        <v>273848.6164940641</v>
       </c>
       <c r="L4" t="n">
-        <v>275031.9162557056</v>
+        <v>273848.616494064</v>
       </c>
       <c r="M4" t="n">
-        <v>267881.9277521388</v>
+        <v>266745.7471774269</v>
       </c>
       <c r="N4" t="n">
-        <v>267881.9277521388</v>
+        <v>266745.7471774269</v>
       </c>
       <c r="O4" t="n">
-        <v>221577.195597426</v>
+        <v>220535.8888702221</v>
       </c>
       <c r="P4" t="n">
-        <v>70639.97070810379</v>
+        <v>69879.81359544017</v>
       </c>
     </row>
     <row r="5">
@@ -26482,7 +26482,7 @@
         <v>4736.311866437371</v>
       </c>
       <c r="G5" t="n">
-        <v>8113.882211065384</v>
+        <v>8113.882211065385</v>
       </c>
       <c r="H5" t="n">
         <v>17881.26632570518</v>
@@ -26491,7 +26491,7 @@
         <v>17881.26632570518</v>
       </c>
       <c r="J5" t="n">
-        <v>19272.0328574196</v>
+        <v>19272.03285741961</v>
       </c>
       <c r="K5" t="n">
         <v>24257.94955661305</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>308670.4575876381</v>
+        <v>309430.6147003015</v>
       </c>
       <c r="C6" t="n">
-        <v>308670.4575876377</v>
+        <v>309430.6147003013</v>
       </c>
       <c r="D6" t="n">
-        <v>308670.4575876381</v>
+        <v>309430.6147003015</v>
       </c>
       <c r="E6" t="n">
-        <v>127805.7683537645</v>
+        <v>128622.153624551</v>
       </c>
       <c r="F6" t="n">
-        <v>143151.097626774</v>
+        <v>143967.4828975605</v>
       </c>
       <c r="G6" t="n">
-        <v>163065.9518708931</v>
+        <v>163979.6322373642</v>
       </c>
       <c r="H6" t="n">
-        <v>170085.4161167973</v>
+        <v>171268.7158784387</v>
       </c>
       <c r="I6" t="n">
-        <v>214286.6465184526</v>
+        <v>215469.9462800941</v>
       </c>
       <c r="J6" t="n">
-        <v>206435.7818033595</v>
+        <v>207619.081565001</v>
       </c>
       <c r="K6" t="n">
-        <v>206417.2481365559</v>
+        <v>207600.5478981974</v>
       </c>
       <c r="L6" t="n">
-        <v>274978.5198303887</v>
+        <v>276161.8195920299</v>
       </c>
       <c r="M6" t="n">
-        <v>267440.9413400438</v>
+        <v>268577.1219147565</v>
       </c>
       <c r="N6" t="n">
-        <v>267440.9413400444</v>
+        <v>268577.1219147564</v>
       </c>
       <c r="O6" t="n">
-        <v>234437.7996536786</v>
+        <v>235479.1063808826</v>
       </c>
       <c r="P6" t="n">
-        <v>128248.729525072</v>
+        <v>129008.8866377357</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26695,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="F2" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="G2" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="H2" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="I2" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="J2" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="K2" t="n">
         <v>114.2428337776276</v>
@@ -26722,7 +26722,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="O2" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26802,7 +26802,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="G4" t="n">
-        <v>83.14216908643478</v>
+        <v>83.14216908643479</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26917,22 +26917,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="F2" t="n">
-        <v>26.39415525749779</v>
+        <v>26.39415525749781</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.007389541131175</v>
+        <v>2.007389541131168</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.53385461920559</v>
+        <v>26.53385461920561</v>
       </c>
       <c r="K2" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27024,10 +27024,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>55.55214382611864</v>
+        <v>55.55214382611868</v>
       </c>
       <c r="H4" t="n">
-        <v>157.8721197912243</v>
+        <v>157.8721197912242</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="K2" t="n">
-        <v>26.39415525749779</v>
+        <v>26.39415525749781</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.007389541131175</v>
+        <v>2.007389541131168</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>26.53385461920559</v>
+        <v>26.53385461920561</v>
       </c>
       <c r="P2" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
     </row>
     <row r="3">
@@ -27270,10 +27270,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>55.55214382611864</v>
+        <v>55.55214382611868</v>
       </c>
       <c r="P4" t="n">
-        <v>157.8721197912243</v>
+        <v>157.8721197912242</v>
       </c>
     </row>
   </sheetData>
@@ -28284,10 +28284,10 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.890148850910155</v>
       </c>
       <c r="P13" t="n">
-        <v>4.611589586016663</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>9.990699214544804</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="C14" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="D14" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="E14" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="F14" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="G14" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="H14" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="I14" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28372,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="S14" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="T14" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="U14" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="V14" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="W14" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="X14" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="Y14" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="C15" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="D15" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="E15" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="F15" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="G15" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="H15" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="I15" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="S15" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="T15" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="U15" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="V15" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="W15" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="X15" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="Y15" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="C16" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="D16" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="E16" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="F16" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="G16" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="H16" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="I16" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="J16" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="K16" t="n">
         <v>24.15964067679301</v>
@@ -28527,31 +28527,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="R16" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="S16" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="T16" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="U16" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="V16" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="W16" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="X16" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="Y16" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="C17" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="D17" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="E17" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="F17" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="G17" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="H17" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="I17" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28609,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="S17" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="T17" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="U17" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="V17" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="W17" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="X17" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="Y17" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="C18" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="D18" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="E18" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="F18" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="G18" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="H18" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="I18" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="S18" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="T18" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="U18" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="V18" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="W18" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="X18" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="Y18" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="C19" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="D19" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="E19" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="F19" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="G19" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="H19" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="I19" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="J19" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="K19" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="L19" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="M19" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="N19" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="O19" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="P19" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="Q19" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="R19" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="S19" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="T19" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="U19" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="V19" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="W19" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="X19" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
       <c r="Y19" t="n">
-        <v>36.3848544720426</v>
+        <v>36.38485447204261</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="C20" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="D20" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="E20" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="F20" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="G20" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="H20" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="I20" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28846,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="S20" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="T20" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="U20" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="V20" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="W20" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="X20" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="Y20" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="C21" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="D21" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="E21" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="F21" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="G21" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="H21" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="I21" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="S21" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="T21" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="U21" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="V21" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="W21" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="X21" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="Y21" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="C22" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="D22" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="E22" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="F22" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="G22" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="H22" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="I22" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="J22" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="K22" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="L22" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="M22" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="N22" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="O22" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="P22" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="R22" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="S22" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="T22" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="U22" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="V22" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="W22" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="X22" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="Y22" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="C23" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="D23" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="E23" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="F23" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="G23" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="H23" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="I23" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29083,28 +29083,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="S23" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="T23" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="U23" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="V23" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="W23" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="X23" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="Y23" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="C24" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="D24" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="E24" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="F24" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="G24" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="H24" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="I24" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="S24" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="T24" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="U24" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="V24" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="W24" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="X24" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="Y24" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="C25" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="D25" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="E25" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="F25" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="G25" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="H25" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="I25" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="J25" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="K25" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="L25" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="M25" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="N25" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="O25" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="P25" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="R25" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="S25" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="T25" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="U25" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="V25" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="W25" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="X25" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
       <c r="Y25" t="n">
-        <v>38.39224401317377</v>
+        <v>38.39224401317378</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="C26" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="D26" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="E26" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="F26" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="G26" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="H26" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="I26" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29320,28 +29320,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="S26" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="T26" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="U26" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="V26" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="W26" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="X26" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="Y26" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="C27" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="D27" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="E27" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="F27" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="G27" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="H27" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="I27" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="S27" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="T27" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="U27" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="V27" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="W27" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="X27" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="Y27" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="C28" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="D28" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="E28" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="F28" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="G28" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="H28" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="I28" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="J28" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="K28" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="L28" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="M28" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="N28" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="O28" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="P28" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="Q28" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="R28" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="S28" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="T28" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="U28" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="V28" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="W28" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="X28" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
       <c r="Y28" t="n">
-        <v>54.93539941783456</v>
+        <v>54.93539941783458</v>
       </c>
     </row>
     <row r="29">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="C41" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="D41" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="E41" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="F41" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="G41" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="H41" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="I41" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30505,28 +30505,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="S41" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="T41" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="U41" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="V41" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="W41" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="X41" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="Y41" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
     </row>
     <row r="42">
@@ -30536,28 +30536,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="C42" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="D42" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="E42" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="F42" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="G42" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="H42" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="I42" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30584,28 +30584,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="S42" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="T42" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="U42" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="V42" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="W42" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="X42" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="Y42" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="C43" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="D43" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="E43" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="F43" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="G43" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="H43" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="I43" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="J43" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="K43" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="L43" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="M43" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="N43" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="O43" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="P43" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="Q43" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="R43" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="S43" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="T43" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="U43" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="V43" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="W43" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="X43" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.70158961729086</v>
+        <v>85.70158961729085</v>
       </c>
     </row>
     <row r="44">
@@ -35410,7 +35410,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>27.59002526031614</v>
@@ -35419,10 +35419,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="N11" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="O11" t="n">
         <v>26.47527676494983</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>26.47527676494983</v>
@@ -35580,10 +35580,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="O13" t="n">
-        <v>24.58512791403967</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P13" t="n">
-        <v>1.890148850910151</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35659,10 +35659,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P14" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M15" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>27.59002526031614</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>83.14216908643479</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>79.78288952738691</v>
       </c>
       <c r="M17" t="n">
-        <v>79.78288952738687</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>83.14216908643478</v>
+        <v>83.14216908643479</v>
       </c>
       <c r="O17" t="n">
-        <v>83.14216908643478</v>
+        <v>83.14216908643479</v>
       </c>
       <c r="P17" t="n">
-        <v>83.14216908643478</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>79.78288952738691</v>
       </c>
       <c r="L18" t="n">
-        <v>83.14216908643478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>83.14216908643478</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>79.78288952738687</v>
+        <v>83.14216908643479</v>
       </c>
       <c r="O18" t="n">
-        <v>83.14216908643478</v>
+        <v>83.14216908643479</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>83.14216908643479</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>14.11536264615975</v>
+        <v>14.11536264615976</v>
       </c>
       <c r="L19" t="n">
-        <v>63.97487973235874</v>
+        <v>63.97487973235875</v>
       </c>
       <c r="M19" t="n">
         <v>75.96873143388319</v>
@@ -36054,10 +36054,10 @@
         <v>80.5170268512712</v>
       </c>
       <c r="O19" t="n">
-        <v>60.96998238608227</v>
+        <v>60.96998238608229</v>
       </c>
       <c r="P19" t="n">
-        <v>33.66341373693609</v>
+        <v>33.6634137369361</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36209,16 +36209,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>16.12275218729092</v>
+        <v>16.12275218729093</v>
       </c>
       <c r="L22" t="n">
         <v>65.98226927348992</v>
@@ -36294,7 +36294,7 @@
         <v>62.97737192721345</v>
       </c>
       <c r="P22" t="n">
-        <v>35.67080327806726</v>
+        <v>35.67080327806727</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>16.12275218729092</v>
+        <v>16.12275218729093</v>
       </c>
       <c r="L25" t="n">
         <v>65.98226927348992</v>
@@ -36531,7 +36531,7 @@
         <v>62.97737192721345</v>
       </c>
       <c r="P25" t="n">
-        <v>35.67080327806726</v>
+        <v>35.67080327806727</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>46.78797658628819</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36689,7 +36689,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>32.66590759195171</v>
+        <v>32.66590759195173</v>
       </c>
       <c r="L28" t="n">
-        <v>82.5254246781507</v>
+        <v>82.52542467815073</v>
       </c>
       <c r="M28" t="n">
-        <v>94.51927637967515</v>
+        <v>94.51927637967518</v>
       </c>
       <c r="N28" t="n">
-        <v>99.06757179706315</v>
+        <v>99.06757179706318</v>
       </c>
       <c r="O28" t="n">
-        <v>79.52052733187423</v>
+        <v>79.52052733187426</v>
       </c>
       <c r="P28" t="n">
-        <v>52.21395868272805</v>
+        <v>52.21395868272807</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>20.88365366095486</v>
+        <v>20.88365366095485</v>
       </c>
       <c r="K31" t="n">
-        <v>91.97334195174479</v>
+        <v>91.97334195174477</v>
       </c>
       <c r="L31" t="n">
         <v>141.8328590379438</v>
@@ -37008,7 +37008,7 @@
         <v>111.5213930425211</v>
       </c>
       <c r="Q31" t="n">
-        <v>28.08079052593325</v>
+        <v>28.08079052593324</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37160,13 +37160,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>20.88365366095486</v>
+        <v>20.88365366095485</v>
       </c>
       <c r="K34" t="n">
-        <v>91.97334195174479</v>
+        <v>91.97334195174477</v>
       </c>
       <c r="L34" t="n">
         <v>141.8328590379438</v>
@@ -37245,7 +37245,7 @@
         <v>111.5213930425211</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.08079052593325</v>
+        <v>28.08079052593324</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,13 +37312,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>109.9219477196616</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410586</v>
+        <v>47.19965394337734</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>37.01765175063407</v>
+      </c>
+      <c r="N36" t="n">
         <v>213.4242636173429</v>
-      </c>
-      <c r="M36" t="n">
-        <v>213.4242636173429</v>
-      </c>
-      <c r="N36" t="n">
-        <v>204.8010610469452</v>
       </c>
       <c r="O36" t="n">
         <v>213.4242636173429</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>213.4242636173429</v>
+        <v>109.9219477196616</v>
       </c>
       <c r="N38" t="n">
-        <v>104.4315449177119</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,13 +37634,13 @@
         <v>213.4242636173429</v>
       </c>
       <c r="O39" t="n">
-        <v>213.4242636173429</v>
+        <v>107.1131654004615</v>
       </c>
       <c r="P39" t="n">
-        <v>134.7055473971176</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>157.8721197912242</v>
       </c>
       <c r="M41" t="n">
-        <v>68.09788581846061</v>
+        <v>157.8721197912242</v>
       </c>
       <c r="N41" t="n">
-        <v>157.8721197912242</v>
+        <v>54.60803670848955</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37868,10 +37868,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
+        <v>157.8721197912242</v>
+      </c>
+      <c r="O42" t="n">
         <v>112.6462563876852</v>
-      </c>
-      <c r="O42" t="n">
-        <v>157.8721197912242</v>
       </c>
       <c r="P42" t="n">
         <v>157.8721197912242</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>63.43209779140801</v>
+        <v>63.432097791408</v>
       </c>
       <c r="L43" t="n">
         <v>113.291614877607</v>
       </c>
       <c r="M43" t="n">
-        <v>125.2854665791315</v>
+        <v>125.2854665791314</v>
       </c>
       <c r="N43" t="n">
         <v>129.8337619965195</v>
@@ -37953,7 +37953,7 @@
         <v>110.2867175313305</v>
       </c>
       <c r="P43" t="n">
-        <v>82.98014888218435</v>
+        <v>82.98014888218434</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
